--- a/assets/autofin/autofin_mock_20241101.xlsx
+++ b/assets/autofin/autofin_mock_20241101.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27015" windowHeight="12975" activeTab="5"/>
+    <workbookView windowWidth="22185" windowHeight="9135" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="autofin_pretrial" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">autofin_pretrial!$A$1:$K$21</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">autofin_sectrial!$A$1:$AM$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">autofin_sectrial!$A$1:$AU$15</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="791">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="846">
   <si>
     <t>order_no</t>
   </si>
@@ -310,10 +310,34 @@
     <t>spos_tel</t>
   </si>
   <si>
-    <t>guar_certno</t>
-  </si>
-  <si>
-    <t>guar_tel</t>
+    <t>guar1_certno</t>
+  </si>
+  <si>
+    <t>guar1_tel</t>
+  </si>
+  <si>
+    <t>guar2_certno</t>
+  </si>
+  <si>
+    <t>guar2_tel</t>
+  </si>
+  <si>
+    <t>guar3_certno</t>
+  </si>
+  <si>
+    <t>guar3_tel</t>
+  </si>
+  <si>
+    <t>guar4_certno</t>
+  </si>
+  <si>
+    <t>guar4_tel</t>
+  </si>
+  <si>
+    <t>guar5_certno</t>
+  </si>
+  <si>
+    <t>guar5_tel</t>
   </si>
   <si>
     <t>link1_certno</t>
@@ -400,6 +424,12 @@
     <t>tel_2001</t>
   </si>
   <si>
+    <t>certno_8001</t>
+  </si>
+  <si>
+    <t>tel_1201</t>
+  </si>
+  <si>
     <t>certno_3001</t>
   </si>
   <si>
@@ -475,6 +505,12 @@
     <t>tel_2002</t>
   </si>
   <si>
+    <t>certno_8002</t>
+  </si>
+  <si>
+    <t>tel_1202</t>
+  </si>
+  <si>
     <t>certno_3002</t>
   </si>
   <si>
@@ -550,6 +586,12 @@
     <t>tel_4003</t>
   </si>
   <si>
+    <t>certno_1111</t>
+  </si>
+  <si>
+    <t>tel_1203</t>
+  </si>
+  <si>
     <t>certno_3003</t>
   </si>
   <si>
@@ -601,6 +643,27 @@
     <t>tel_2004</t>
   </si>
   <si>
+    <t>certno_8004</t>
+  </si>
+  <si>
+    <t>tel_1204</t>
+  </si>
+  <si>
+    <t>certno_9004</t>
+  </si>
+  <si>
+    <t>tel_1304</t>
+  </si>
+  <si>
+    <t>tel_1404</t>
+  </si>
+  <si>
+    <t>certno_2101</t>
+  </si>
+  <si>
+    <t>tel_1504</t>
+  </si>
+  <si>
     <t>certno_3004</t>
   </si>
   <si>
@@ -667,6 +730,18 @@
     <t>tel_2005</t>
   </si>
   <si>
+    <t>certno_8005</t>
+  </si>
+  <si>
+    <t>tel_1205</t>
+  </si>
+  <si>
+    <t>certno_1010</t>
+  </si>
+  <si>
+    <t>tel_1305</t>
+  </si>
+  <si>
     <t>certno_3005</t>
   </si>
   <si>
@@ -733,6 +808,18 @@
     <t>tel_2006</t>
   </si>
   <si>
+    <t>certno_8006</t>
+  </si>
+  <si>
+    <t>tel_1206</t>
+  </si>
+  <si>
+    <t>certno_9006</t>
+  </si>
+  <si>
+    <t>tel_1306</t>
+  </si>
+  <si>
     <t>certno_3006</t>
   </si>
   <si>
@@ -874,6 +961,30 @@
     <t>tel_2008</t>
   </si>
   <si>
+    <t>certno_8008</t>
+  </si>
+  <si>
+    <t>tel_1208</t>
+  </si>
+  <si>
+    <t>certno_9008</t>
+  </si>
+  <si>
+    <t>tel_1308</t>
+  </si>
+  <si>
+    <t>certno_1008</t>
+  </si>
+  <si>
+    <t>tel_1408</t>
+  </si>
+  <si>
+    <t>certno_1108</t>
+  </si>
+  <si>
+    <t>tel_1508</t>
+  </si>
+  <si>
     <t>certno_3008</t>
   </si>
   <si>
@@ -919,6 +1030,30 @@
     <t>tel_2009</t>
   </si>
   <si>
+    <t>certno_8009</t>
+  </si>
+  <si>
+    <t>tel_1209</t>
+  </si>
+  <si>
+    <t>certno_9009</t>
+  </si>
+  <si>
+    <t>tel_1309</t>
+  </si>
+  <si>
+    <t>certno_1009</t>
+  </si>
+  <si>
+    <t>tel_1409</t>
+  </si>
+  <si>
+    <t>certno_1109</t>
+  </si>
+  <si>
+    <t>tel_1509</t>
+  </si>
+  <si>
     <t>certno_3009</t>
   </si>
   <si>
@@ -973,15 +1108,18 @@
     <t>tel_0011</t>
   </si>
   <si>
-    <t>certno_1010</t>
-  </si>
-  <si>
     <t>tel_1010</t>
   </si>
   <si>
     <t>certno_2010</t>
   </si>
   <si>
+    <t>certno_8010</t>
+  </si>
+  <si>
+    <t>tel_1210</t>
+  </si>
+  <si>
     <t>tel_3010</t>
   </si>
   <si>
@@ -1036,6 +1174,27 @@
     <t>tel_2011</t>
   </si>
   <si>
+    <t>certno_8011</t>
+  </si>
+  <si>
+    <t>tel_1211</t>
+  </si>
+  <si>
+    <t>certno_9011</t>
+  </si>
+  <si>
+    <t>tel_1311</t>
+  </si>
+  <si>
+    <t>certno_1011</t>
+  </si>
+  <si>
+    <t>tel_1411</t>
+  </si>
+  <si>
+    <t>tel_1511</t>
+  </si>
+  <si>
     <t>certno_3011</t>
   </si>
   <si>
@@ -1084,6 +1243,15 @@
     <t>tel_2012</t>
   </si>
   <si>
+    <t>tel_1212</t>
+  </si>
+  <si>
+    <t>certno_9012</t>
+  </si>
+  <si>
+    <t>tel_1312</t>
+  </si>
+  <si>
     <t>certno_3012</t>
   </si>
   <si>
@@ -1376,9 +1544,6 @@
   </si>
   <si>
     <t>orgnm_1001</t>
-  </si>
-  <si>
-    <t>certno_2101</t>
   </si>
   <si>
     <t>tel_2101</t>
@@ -3571,7 +3736,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4344,39 +4509,39 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>663</v>
+        <v>718</v>
       </c>
       <c r="D1" t="s">
-        <v>664</v>
+        <v>719</v>
       </c>
       <c r="E1" t="s">
-        <v>665</v>
+        <v>720</v>
       </c>
       <c r="F1" t="s">
-        <v>666</v>
+        <v>721</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>667</v>
+        <v>722</v>
       </c>
       <c r="D2" t="s">
-        <v>668</v>
+        <v>723</v>
       </c>
       <c r="E2" t="s">
-        <v>669</v>
+        <v>724</v>
       </c>
       <c r="F2" s="1">
         <v>44668</v>
@@ -4384,19 +4549,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>670</v>
+        <v>725</v>
       </c>
       <c r="D3" t="s">
-        <v>671</v>
+        <v>726</v>
       </c>
       <c r="E3" t="s">
-        <v>672</v>
+        <v>727</v>
       </c>
       <c r="F3" s="1">
         <v>44663</v>
@@ -4404,19 +4569,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>673</v>
+        <v>728</v>
       </c>
       <c r="D4" t="s">
-        <v>674</v>
+        <v>729</v>
       </c>
       <c r="E4" t="s">
-        <v>675</v>
+        <v>730</v>
       </c>
       <c r="F4" s="1">
         <v>44604</v>
@@ -4424,19 +4589,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>676</v>
+        <v>731</v>
       </c>
       <c r="D5" t="s">
-        <v>677</v>
+        <v>732</v>
       </c>
       <c r="E5" t="s">
-        <v>678</v>
+        <v>733</v>
       </c>
       <c r="F5" s="1">
         <v>44592</v>
@@ -4444,19 +4609,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>679</v>
+        <v>734</v>
       </c>
       <c r="D6" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="F6" s="1">
         <v>44643</v>
@@ -4464,19 +4629,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>680</v>
+        <v>735</v>
       </c>
       <c r="D7" t="s">
-        <v>681</v>
+        <v>736</v>
       </c>
       <c r="E7" t="s">
-        <v>682</v>
+        <v>737</v>
       </c>
       <c r="F7" s="1">
         <v>44677</v>
@@ -4484,19 +4649,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>683</v>
+        <v>738</v>
       </c>
       <c r="D8" t="s">
-        <v>684</v>
+        <v>739</v>
       </c>
       <c r="E8" t="s">
-        <v>685</v>
+        <v>740</v>
       </c>
       <c r="F8" s="1">
         <v>44632</v>
@@ -4504,19 +4669,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>686</v>
+        <v>741</v>
       </c>
       <c r="D9" t="s">
-        <v>687</v>
+        <v>742</v>
       </c>
       <c r="E9" t="s">
-        <v>688</v>
+        <v>743</v>
       </c>
       <c r="F9" s="1">
         <v>44628</v>
@@ -4524,19 +4689,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>689</v>
+        <v>744</v>
       </c>
       <c r="D10" t="s">
-        <v>690</v>
+        <v>745</v>
       </c>
       <c r="E10" t="s">
-        <v>691</v>
+        <v>746</v>
       </c>
       <c r="F10" s="1">
         <v>44629</v>
@@ -4544,19 +4709,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>692</v>
+        <v>747</v>
       </c>
       <c r="D11" t="s">
-        <v>693</v>
+        <v>748</v>
       </c>
       <c r="E11" t="s">
-        <v>694</v>
+        <v>749</v>
       </c>
       <c r="F11" s="1">
         <v>44639</v>
@@ -4564,19 +4729,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>695</v>
+        <v>750</v>
       </c>
       <c r="D12" t="s">
-        <v>696</v>
+        <v>751</v>
       </c>
       <c r="E12" t="s">
-        <v>697</v>
+        <v>752</v>
       </c>
       <c r="F12" s="1">
         <v>44654</v>
@@ -4584,19 +4749,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>698</v>
+        <v>753</v>
       </c>
       <c r="D13" t="s">
-        <v>699</v>
+        <v>754</v>
       </c>
       <c r="E13" t="s">
-        <v>700</v>
+        <v>755</v>
       </c>
       <c r="F13" s="1">
         <v>44647</v>
@@ -4604,19 +4769,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>701</v>
+        <v>756</v>
       </c>
       <c r="D14" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="E14" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="F14" s="1">
         <v>44662</v>
@@ -4624,19 +4789,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>702</v>
+        <v>757</v>
       </c>
       <c r="D15" t="s">
-        <v>703</v>
+        <v>758</v>
       </c>
       <c r="E15" t="s">
-        <v>704</v>
+        <v>759</v>
       </c>
       <c r="F15" s="1">
         <v>44675</v>
@@ -4644,19 +4809,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>705</v>
+        <v>760</v>
       </c>
       <c r="D16" t="s">
-        <v>706</v>
+        <v>761</v>
       </c>
       <c r="E16" t="s">
-        <v>707</v>
+        <v>762</v>
       </c>
       <c r="F16" s="1">
         <v>44950</v>
@@ -4664,19 +4829,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>708</v>
+        <v>763</v>
       </c>
       <c r="D17" t="s">
-        <v>709</v>
+        <v>764</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="F17" s="1">
         <v>44971</v>
@@ -4684,19 +4849,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>710</v>
+        <v>765</v>
       </c>
       <c r="D18" t="s">
-        <v>711</v>
+        <v>766</v>
       </c>
       <c r="E18" t="s">
-        <v>712</v>
+        <v>767</v>
       </c>
       <c r="F18" s="1">
         <v>44978</v>
@@ -4704,19 +4869,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>713</v>
+        <v>768</v>
       </c>
       <c r="D19" t="s">
-        <v>714</v>
+        <v>769</v>
       </c>
       <c r="E19" t="s">
-        <v>715</v>
+        <v>770</v>
       </c>
       <c r="F19" s="1">
         <v>44979</v>
@@ -4724,19 +4889,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>716</v>
+        <v>771</v>
       </c>
       <c r="D20" t="s">
-        <v>717</v>
+        <v>772</v>
       </c>
       <c r="E20" t="s">
-        <v>718</v>
+        <v>773</v>
       </c>
       <c r="F20" s="1">
         <v>44994</v>
@@ -4744,19 +4909,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>719</v>
+        <v>774</v>
       </c>
       <c r="D21" t="s">
-        <v>615</v>
+        <v>670</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="F21" s="1">
         <v>45013</v>
@@ -4764,19 +4929,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>720</v>
+        <v>775</v>
       </c>
       <c r="D22" t="s">
-        <v>721</v>
+        <v>776</v>
       </c>
       <c r="E22" t="s">
-        <v>722</v>
+        <v>777</v>
       </c>
       <c r="F22" s="1">
         <v>45018</v>
@@ -4784,19 +4949,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>723</v>
+        <v>778</v>
       </c>
       <c r="D23" t="s">
-        <v>724</v>
+        <v>779</v>
       </c>
       <c r="E23" t="s">
-        <v>725</v>
+        <v>780</v>
       </c>
       <c r="F23" s="1">
         <v>45045</v>
@@ -4804,19 +4969,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>726</v>
+        <v>781</v>
       </c>
       <c r="D24" t="s">
-        <v>727</v>
+        <v>782</v>
       </c>
       <c r="E24" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="F24" s="1">
         <v>45031</v>
@@ -4824,19 +4989,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>728</v>
+        <v>783</v>
       </c>
       <c r="D25" t="s">
-        <v>729</v>
+        <v>784</v>
       </c>
       <c r="E25" t="s">
-        <v>730</v>
+        <v>785</v>
       </c>
       <c r="F25" s="1">
         <v>44970</v>
@@ -4844,19 +5009,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>731</v>
+        <v>786</v>
       </c>
       <c r="D26" t="s">
-        <v>732</v>
+        <v>787</v>
       </c>
       <c r="E26" t="s">
-        <v>733</v>
+        <v>788</v>
       </c>
       <c r="F26" s="1">
         <v>45042</v>
@@ -4864,19 +5029,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>734</v>
+        <v>789</v>
       </c>
       <c r="D27" t="s">
-        <v>735</v>
+        <v>790</v>
       </c>
       <c r="E27" t="s">
-        <v>736</v>
+        <v>791</v>
       </c>
       <c r="F27" s="1">
         <v>44975</v>
@@ -4884,19 +5049,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>737</v>
+        <v>792</v>
       </c>
       <c r="D28" t="s">
-        <v>738</v>
+        <v>793</v>
       </c>
       <c r="E28" t="s">
-        <v>739</v>
+        <v>794</v>
       </c>
       <c r="F28" s="1">
         <v>45001</v>
@@ -4904,19 +5069,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>740</v>
+        <v>795</v>
       </c>
       <c r="D29" t="s">
-        <v>630</v>
+        <v>685</v>
       </c>
       <c r="E29" t="s">
-        <v>579</v>
+        <v>634</v>
       </c>
       <c r="F29" s="1">
         <v>44962</v>
@@ -4924,19 +5089,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>525</v>
+        <v>580</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>741</v>
+        <v>796</v>
       </c>
       <c r="D30" t="s">
-        <v>742</v>
+        <v>797</v>
       </c>
       <c r="E30" t="s">
-        <v>743</v>
+        <v>798</v>
       </c>
       <c r="F30" s="1">
         <v>45032</v>
@@ -4944,19 +5109,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>525</v>
+        <v>580</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>744</v>
+        <v>799</v>
       </c>
       <c r="D31" t="s">
-        <v>745</v>
+        <v>800</v>
       </c>
       <c r="E31" t="s">
-        <v>746</v>
+        <v>801</v>
       </c>
       <c r="F31" s="1">
         <v>44968</v>
@@ -4964,19 +5129,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>525</v>
+        <v>580</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>747</v>
+        <v>802</v>
       </c>
       <c r="D32" t="s">
-        <v>635</v>
+        <v>690</v>
       </c>
       <c r="E32" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="F32" s="1">
         <v>45042</v>
@@ -4984,19 +5149,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>530</v>
+        <v>585</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>748</v>
+        <v>803</v>
       </c>
       <c r="D33" t="s">
-        <v>749</v>
+        <v>804</v>
       </c>
       <c r="E33" t="s">
-        <v>750</v>
+        <v>805</v>
       </c>
       <c r="F33" s="1">
         <v>45041</v>
@@ -5004,19 +5169,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>530</v>
+        <v>585</v>
       </c>
       <c r="B34" t="s">
         <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>751</v>
+        <v>806</v>
       </c>
       <c r="D34" t="s">
-        <v>752</v>
+        <v>807</v>
       </c>
       <c r="E34" t="s">
-        <v>753</v>
+        <v>808</v>
       </c>
       <c r="F34" s="1">
         <v>44966</v>
@@ -5024,19 +5189,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>533</v>
+        <v>588</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>754</v>
+        <v>809</v>
       </c>
       <c r="D35" t="s">
-        <v>755</v>
+        <v>810</v>
       </c>
       <c r="E35" t="s">
-        <v>756</v>
+        <v>811</v>
       </c>
       <c r="F35" s="1">
         <v>45394</v>
@@ -5044,19 +5209,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>533</v>
+        <v>588</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>757</v>
+        <v>812</v>
       </c>
       <c r="D36" t="s">
-        <v>758</v>
+        <v>813</v>
       </c>
       <c r="E36" t="s">
-        <v>759</v>
+        <v>814</v>
       </c>
       <c r="F36" s="1">
         <v>45406</v>
@@ -5064,19 +5229,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>533</v>
+        <v>588</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>760</v>
+        <v>815</v>
       </c>
       <c r="D37" t="s">
-        <v>761</v>
+        <v>816</v>
       </c>
       <c r="E37" t="s">
-        <v>762</v>
+        <v>817</v>
       </c>
       <c r="F37" s="1">
         <v>45405</v>
@@ -5084,19 +5249,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="B38" t="s">
         <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>763</v>
+        <v>818</v>
       </c>
       <c r="D38" t="s">
-        <v>764</v>
+        <v>819</v>
       </c>
       <c r="E38" t="s">
-        <v>765</v>
+        <v>820</v>
       </c>
       <c r="F38" s="1">
         <v>45409</v>
@@ -5104,19 +5269,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="B39" t="s">
         <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>766</v>
+        <v>821</v>
       </c>
       <c r="D39" t="s">
-        <v>767</v>
+        <v>822</v>
       </c>
       <c r="E39" t="s">
-        <v>768</v>
+        <v>823</v>
       </c>
       <c r="F39" s="1">
         <v>45358</v>
@@ -5124,19 +5289,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="B40" t="s">
         <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>769</v>
+        <v>824</v>
       </c>
       <c r="D40" t="s">
-        <v>649</v>
+        <v>704</v>
       </c>
       <c r="E40" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="F40" s="1">
         <v>45352</v>
@@ -5144,19 +5309,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>539</v>
+        <v>594</v>
       </c>
       <c r="B41" t="s">
         <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>770</v>
+        <v>825</v>
       </c>
       <c r="D41" t="s">
-        <v>771</v>
+        <v>826</v>
       </c>
       <c r="E41" t="s">
-        <v>772</v>
+        <v>827</v>
       </c>
       <c r="F41" s="1">
         <v>45408</v>
@@ -5164,19 +5329,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>539</v>
+        <v>594</v>
       </c>
       <c r="B42" t="s">
         <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>773</v>
+        <v>828</v>
       </c>
       <c r="D42" t="s">
-        <v>774</v>
+        <v>829</v>
       </c>
       <c r="E42" t="s">
-        <v>775</v>
+        <v>830</v>
       </c>
       <c r="F42" s="1">
         <v>45402</v>
@@ -5184,19 +5349,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>539</v>
+        <v>594</v>
       </c>
       <c r="B43" t="s">
         <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>776</v>
+        <v>831</v>
       </c>
       <c r="D43" t="s">
-        <v>777</v>
+        <v>832</v>
       </c>
       <c r="E43" t="s">
-        <v>778</v>
+        <v>833</v>
       </c>
       <c r="F43" s="1">
         <v>45383</v>
@@ -5204,19 +5369,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>543</v>
+        <v>598</v>
       </c>
       <c r="B44" t="s">
         <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>779</v>
+        <v>834</v>
       </c>
       <c r="D44" t="s">
-        <v>780</v>
+        <v>835</v>
       </c>
       <c r="E44" t="s">
-        <v>781</v>
+        <v>836</v>
       </c>
       <c r="F44" s="1">
         <v>45336</v>
@@ -5224,19 +5389,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>543</v>
+        <v>598</v>
       </c>
       <c r="B45" t="s">
         <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>782</v>
+        <v>837</v>
       </c>
       <c r="D45" t="s">
-        <v>658</v>
+        <v>713</v>
       </c>
       <c r="E45" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F45" s="1">
         <v>45379</v>
@@ -5244,19 +5409,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>546</v>
+        <v>601</v>
       </c>
       <c r="B46" t="s">
         <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>783</v>
+        <v>838</v>
       </c>
       <c r="D46" t="s">
-        <v>784</v>
+        <v>839</v>
       </c>
       <c r="E46" t="s">
-        <v>785</v>
+        <v>840</v>
       </c>
       <c r="F46" s="1">
         <v>45374</v>
@@ -5264,19 +5429,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>551</v>
+        <v>606</v>
       </c>
       <c r="B47" t="s">
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>786</v>
+        <v>841</v>
       </c>
       <c r="D47" t="s">
-        <v>787</v>
+        <v>842</v>
       </c>
       <c r="E47" t="s">
-        <v>788</v>
+        <v>843</v>
       </c>
       <c r="F47" s="1">
         <v>45385</v>
@@ -5294,7 +5459,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
@@ -5306,27 +5471,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>789</v>
+        <v>844</v>
       </c>
       <c r="D1" t="s">
-        <v>790</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>716</v>
+        <v>771</v>
       </c>
       <c r="D2" s="1">
         <v>44994</v>
@@ -5334,13 +5499,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="D3" s="2">
         <v>44593</v>
@@ -5355,10 +5520,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AL15"/>
+  <dimension ref="A1:AT15"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5368,34 +5533,42 @@
     <col min="4" max="4" width="9.375" customWidth="1"/>
     <col min="5" max="7" width="12.625" customWidth="1"/>
     <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="12.625" customWidth="1"/>
+    <col min="9" max="9" width="13.75" customWidth="1"/>
     <col min="10" max="10" width="9.375" customWidth="1"/>
-    <col min="11" max="11" width="12.625" customWidth="1"/>
+    <col min="11" max="11" width="13.75" customWidth="1"/>
     <col min="12" max="12" width="9.375" customWidth="1"/>
-    <col min="13" max="13" width="12.625" customWidth="1"/>
+    <col min="13" max="13" width="13.75" customWidth="1"/>
     <col min="14" max="14" width="9.375" customWidth="1"/>
-    <col min="15" max="15" width="12.625" customWidth="1"/>
+    <col min="15" max="15" width="13.75" customWidth="1"/>
     <col min="16" max="16" width="9.375" customWidth="1"/>
     <col min="17" max="17" width="12.625" customWidth="1"/>
-    <col min="18" max="19" width="9.375" customWidth="1"/>
-    <col min="20" max="21" width="16" customWidth="1"/>
-    <col min="22" max="22" width="10.375" customWidth="1"/>
-    <col min="24" max="24" width="10.375" customWidth="1"/>
-    <col min="25" max="25" width="11.5" customWidth="1"/>
-    <col min="26" max="26" width="10.375" customWidth="1"/>
-    <col min="28" max="28" width="14.125" customWidth="1"/>
-    <col min="29" max="29" width="16" customWidth="1"/>
-    <col min="30" max="30" width="14.875" customWidth="1"/>
-    <col min="31" max="31" width="14.625" customWidth="1"/>
-    <col min="32" max="32" width="16" customWidth="1"/>
-    <col min="33" max="33" width="14.875" customWidth="1"/>
-    <col min="34" max="34" width="17.125" customWidth="1"/>
-    <col min="35" max="36" width="11.5" customWidth="1"/>
-    <col min="37" max="37" width="12.625" customWidth="1"/>
-    <col min="38" max="38" width="9" style="3"/>
+    <col min="18" max="18" width="9.375" customWidth="1"/>
+    <col min="19" max="19" width="12.625" customWidth="1"/>
+    <col min="20" max="20" width="9.375" customWidth="1"/>
+    <col min="21" max="21" width="12.625" customWidth="1"/>
+    <col min="22" max="22" width="9.375" customWidth="1"/>
+    <col min="23" max="23" width="12.625" customWidth="1"/>
+    <col min="24" max="24" width="9.375" customWidth="1"/>
+    <col min="25" max="25" width="12.625" customWidth="1"/>
+    <col min="26" max="27" width="9.375" customWidth="1"/>
+    <col min="28" max="29" width="16" customWidth="1"/>
+    <col min="30" max="30" width="10.375" customWidth="1"/>
+    <col min="32" max="32" width="10.375" customWidth="1"/>
+    <col min="33" max="33" width="11.5" customWidth="1"/>
+    <col min="34" max="34" width="10.375" customWidth="1"/>
+    <col min="36" max="36" width="14.125" customWidth="1"/>
+    <col min="37" max="37" width="16" customWidth="1"/>
+    <col min="38" max="38" width="14.875" customWidth="1"/>
+    <col min="39" max="39" width="14.625" customWidth="1"/>
+    <col min="40" max="40" width="16" customWidth="1"/>
+    <col min="41" max="41" width="14.875" customWidth="1"/>
+    <col min="42" max="42" width="17.125" customWidth="1"/>
+    <col min="43" max="44" width="11.5" customWidth="1"/>
+    <col min="45" max="45" width="12.625" customWidth="1"/>
+    <col min="46" max="46" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:46">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5487,33 +5660,57 @@
         <v>112</v>
       </c>
       <c r="AE1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM1" t="s">
         <v>5</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AN1" t="s">
         <v>6</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AO1" t="s">
         <v>7</v>
       </c>
-      <c r="AH1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK1" t="s">
+      <c r="AP1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS1" t="s">
         <v>9</v>
       </c>
-      <c r="AL1" s="3" t="s">
+      <c r="AT1" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:46">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -5525,7 +5722,7 @@
         <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="F2" t="s">
         <v>19</v>
@@ -5534,102 +5731,114 @@
         <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="I2" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="J2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K2" t="s">
-        <v>121</v>
-      </c>
-      <c r="L2" t="s">
+        <v>128</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2"/>
+      <c r="N2"/>
+      <c r="O2"/>
+      <c r="P2"/>
+      <c r="Q2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R2" t="s">
+        <v>130</v>
+      </c>
+      <c r="S2" t="s">
+        <v>131</v>
+      </c>
+      <c r="T2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" t="s">
-        <v>122</v>
-      </c>
-      <c r="N2" t="s">
-        <v>123</v>
-      </c>
-      <c r="O2" t="s">
-        <v>124</v>
-      </c>
-      <c r="P2" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q2" t="s">
+      <c r="U2" t="s">
+        <v>132</v>
+      </c>
+      <c r="V2" t="s">
+        <v>133</v>
+      </c>
+      <c r="W2" t="s">
+        <v>134</v>
+      </c>
+      <c r="X2" t="s">
+        <v>135</v>
+      </c>
+      <c r="Y2" t="s">
         <v>57</v>
       </c>
-      <c r="R2" t="s">
-        <v>126</v>
-      </c>
-      <c r="S2" t="s">
-        <v>127</v>
-      </c>
-      <c r="T2" t="s">
-        <v>128</v>
-      </c>
-      <c r="U2" t="s">
-        <v>129</v>
-      </c>
-      <c r="V2" t="s">
-        <v>130</v>
-      </c>
-      <c r="W2" t="s">
-        <v>131</v>
-      </c>
-      <c r="X2" t="s">
-        <v>132</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>133</v>
-      </c>
       <c r="Z2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AA2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="AB2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="AC2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="AD2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AE2" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>143</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>145</v>
+      </c>
+      <c r="AJ2" t="s">
+        <v>146</v>
+      </c>
+      <c r="AK2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>148</v>
+      </c>
+      <c r="AM2" t="s">
         <v>20</v>
       </c>
-      <c r="AF2" t="s">
+      <c r="AN2" t="s">
         <v>50</v>
       </c>
-      <c r="AG2" s="2">
+      <c r="AO2" s="2">
         <v>44685</v>
       </c>
-      <c r="AH2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ2" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK2" t="s">
+      <c r="AP2" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ2" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS2" t="s">
         <v>21</v>
       </c>
-      <c r="AL2" s="3">
+      <c r="AT2" s="3">
         <v>400001</v>
       </c>
     </row>
-    <row r="3" spans="1:38">
+    <row r="3" spans="1:46">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
@@ -5646,93 +5855,105 @@
         <v>31</v>
       </c>
       <c r="H3" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="J3" t="s">
-        <v>145</v>
-      </c>
-      <c r="K3" t="s">
-        <v>146</v>
-      </c>
-      <c r="L3" t="s">
-        <v>147</v>
-      </c>
-      <c r="M3" t="s">
-        <v>148</v>
-      </c>
-      <c r="N3" t="s">
-        <v>149</v>
-      </c>
-      <c r="O3" t="s">
-        <v>150</v>
-      </c>
-      <c r="P3" t="s">
-        <v>151</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+      <c r="N3"/>
+      <c r="O3"/>
+      <c r="P3"/>
       <c r="Q3" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="R3" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="S3" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="T3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="U3" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="V3" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="W3" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="X3" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Y3" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Z3" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AA3" t="s">
-        <v>162</v>
-      </c>
-      <c r="AB3"/>
-      <c r="AC3"/>
-      <c r="AD3"/>
+        <v>166</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD3" t="s">
+        <v>169</v>
+      </c>
       <c r="AE3" t="s">
+        <v>170</v>
+      </c>
+      <c r="AF3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>173</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>174</v>
+      </c>
+      <c r="AJ3"/>
+      <c r="AK3"/>
+      <c r="AL3"/>
+      <c r="AM3" t="s">
         <v>15</v>
       </c>
-      <c r="AG3" s="2">
+      <c r="AO3" s="2">
         <v>44685</v>
       </c>
-      <c r="AH3" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>164</v>
-      </c>
-      <c r="AJ3" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK3" t="s">
+      <c r="AP3" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ3" t="s">
+        <v>176</v>
+      </c>
+      <c r="AR3" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS3" t="s">
         <v>21</v>
       </c>
-      <c r="AL3" s="3">
+      <c r="AT3" s="3">
         <v>1100001</v>
       </c>
     </row>
-    <row r="4" spans="1:38">
+    <row r="4" spans="1:46">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
@@ -5747,93 +5968,105 @@
         <v>23</v>
       </c>
       <c r="F4" t="s">
-        <v>167</v>
+        <v>179</v>
       </c>
       <c r="G4" t="s">
         <v>34</v>
       </c>
       <c r="H4" t="s">
-        <v>168</v>
+        <v>180</v>
       </c>
       <c r="I4" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="J4" t="s">
-        <v>170</v>
-      </c>
-      <c r="K4" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" t="s">
-        <v>168</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
-      <c r="Q4"/>
-      <c r="R4"/>
+      <c r="Q4" t="s">
+        <v>183</v>
+      </c>
+      <c r="R4" t="s">
+        <v>184</v>
+      </c>
       <c r="S4" t="s">
-        <v>171</v>
+        <v>57</v>
       </c>
       <c r="T4" t="s">
-        <v>128</v>
-      </c>
-      <c r="U4" t="s">
-        <v>129</v>
-      </c>
-      <c r="V4" t="s">
-        <v>172</v>
-      </c>
-      <c r="W4" t="s">
-        <v>173</v>
-      </c>
-      <c r="X4" t="s">
-        <v>174</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>175</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>176</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="U4"/>
+      <c r="V4"/>
+      <c r="W4"/>
+      <c r="X4"/>
+      <c r="Y4"/>
+      <c r="Z4"/>
       <c r="AA4" t="s">
+        <v>185</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>186</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>187</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>189</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>190</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ4" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK4" t="s">
+        <v>193</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>194</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>44686</v>
+      </c>
+      <c r="AP4" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ4" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR4" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" t="s">
-        <v>178</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>179</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>180</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG4" s="2">
-        <v>44686</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ4" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK4" t="s">
+      <c r="AS4" t="s">
         <v>17</v>
       </c>
-      <c r="AL4" s="3">
+      <c r="AT4" s="3">
         <v>1000001</v>
       </c>
     </row>
-    <row r="5" spans="1:38">
+    <row r="5" spans="1:46">
       <c r="A5" t="s">
-        <v>181</v>
+        <v>195</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
@@ -5845,108 +6078,132 @@
         <v>24</v>
       </c>
       <c r="E5" t="s">
-        <v>182</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="G5" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="H5" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="I5" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="J5" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="K5" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="L5" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="M5" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="N5" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="O5" t="s">
+        <v>205</v>
+      </c>
+      <c r="P5" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>207</v>
+      </c>
+      <c r="R5" t="s">
+        <v>208</v>
+      </c>
+      <c r="S5" t="s">
+        <v>209</v>
+      </c>
+      <c r="T5" t="s">
+        <v>208</v>
+      </c>
+      <c r="U5" t="s">
+        <v>210</v>
+      </c>
+      <c r="V5" t="s">
+        <v>211</v>
+      </c>
+      <c r="W5" t="s">
         <v>64</v>
       </c>
-      <c r="P5" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>192</v>
-      </c>
-      <c r="R5" t="s">
-        <v>193</v>
-      </c>
-      <c r="S5" t="s">
-        <v>194</v>
-      </c>
-      <c r="T5" t="s">
-        <v>155</v>
-      </c>
-      <c r="U5" t="s">
-        <v>156</v>
-      </c>
-      <c r="V5" t="s">
-        <v>195</v>
-      </c>
-      <c r="W5" t="s">
-        <v>196</v>
-      </c>
       <c r="X5" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="Y5" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="Z5" t="s">
-        <v>199</v>
+        <v>214</v>
       </c>
       <c r="AA5" t="s">
-        <v>200</v>
+        <v>215</v>
       </c>
       <c r="AB5" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="AC5" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="AD5" t="s">
-        <v>203</v>
+        <v>216</v>
       </c>
       <c r="AE5" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF5" t="s">
+        <v>218</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ5" t="s">
+        <v>222</v>
+      </c>
+      <c r="AK5" t="s">
+        <v>223</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>224</v>
+      </c>
+      <c r="AM5" t="s">
         <v>15</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AO5" s="2">
         <v>44686</v>
       </c>
-      <c r="AH5" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK5" t="s">
+      <c r="AP5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR5" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS5" t="s">
         <v>17</v>
       </c>
-      <c r="AL5" s="3">
+      <c r="AT5" s="3">
         <v>400001</v>
       </c>
     </row>
-    <row r="6" spans="1:38">
+    <row r="6" spans="1:46">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -5958,100 +6215,116 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
       </c>
       <c r="G6" t="s">
-        <v>206</v>
+        <v>227</v>
       </c>
       <c r="H6" t="s">
-        <v>207</v>
+        <v>228</v>
       </c>
       <c r="I6" t="s">
-        <v>208</v>
+        <v>229</v>
       </c>
       <c r="J6" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
       <c r="K6" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="L6" t="s">
-        <v>211</v>
-      </c>
-      <c r="M6" t="s">
-        <v>212</v>
-      </c>
-      <c r="N6" t="s">
-        <v>213</v>
-      </c>
+        <v>232</v>
+      </c>
+      <c r="M6"/>
+      <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
-      <c r="Q6"/>
-      <c r="R6"/>
+      <c r="Q6" t="s">
+        <v>233</v>
+      </c>
+      <c r="R6" t="s">
+        <v>234</v>
+      </c>
       <c r="S6" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="T6" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="U6" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="V6" t="s">
-        <v>215</v>
-      </c>
-      <c r="W6" t="s">
-        <v>216</v>
-      </c>
-      <c r="X6" t="s">
-        <v>217</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>218</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>219</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="W6"/>
+      <c r="X6"/>
+      <c r="Y6"/>
+      <c r="Z6"/>
       <c r="AA6" t="s">
-        <v>220</v>
+        <v>239</v>
       </c>
       <c r="AB6" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="AC6" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="AD6" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="AE6" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF6" t="s">
+        <v>242</v>
+      </c>
+      <c r="AG6" t="s">
+        <v>243</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ6" t="s">
+        <v>246</v>
+      </c>
+      <c r="AK6" t="s">
+        <v>247</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>248</v>
+      </c>
+      <c r="AM6" t="s">
         <v>20</v>
       </c>
-      <c r="AG6" s="2">
+      <c r="AO6" s="2">
         <v>44686</v>
       </c>
-      <c r="AH6" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>224</v>
-      </c>
-      <c r="AJ6" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK6" t="s">
+      <c r="AP6" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ6" t="s">
+        <v>249</v>
+      </c>
+      <c r="AR6" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS6" t="s">
         <v>17</v>
       </c>
-      <c r="AL6" s="3">
+      <c r="AT6" s="3">
         <v>400001</v>
       </c>
     </row>
-    <row r="7" spans="1:38">
+    <row r="7" spans="1:46">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s">
         <v>37</v>
@@ -6063,107 +6336,123 @@
         <v>38</v>
       </c>
       <c r="E7" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="F7" t="s">
-        <v>227</v>
+        <v>252</v>
       </c>
       <c r="G7" t="s">
-        <v>228</v>
+        <v>253</v>
       </c>
       <c r="H7" t="s">
-        <v>229</v>
+        <v>254</v>
       </c>
       <c r="I7" t="s">
-        <v>230</v>
+        <v>255</v>
       </c>
       <c r="J7" t="s">
-        <v>231</v>
+        <v>256</v>
       </c>
       <c r="K7" t="s">
-        <v>232</v>
+        <v>257</v>
       </c>
       <c r="L7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M7" t="s">
-        <v>234</v>
-      </c>
-      <c r="N7" t="s">
-        <v>235</v>
-      </c>
-      <c r="O7" t="s">
-        <v>236</v>
-      </c>
-      <c r="P7" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q7"/>
-      <c r="R7"/>
+        <v>258</v>
+      </c>
+      <c r="M7"/>
+      <c r="N7"/>
+      <c r="O7"/>
+      <c r="P7"/>
+      <c r="Q7" t="s">
+        <v>259</v>
+      </c>
+      <c r="R7" t="s">
+        <v>260</v>
+      </c>
       <c r="S7" t="s">
-        <v>238</v>
+        <v>261</v>
       </c>
       <c r="T7" t="s">
-        <v>155</v>
+        <v>262</v>
       </c>
       <c r="U7" t="s">
-        <v>156</v>
+        <v>263</v>
       </c>
       <c r="V7" t="s">
-        <v>239</v>
+        <v>264</v>
       </c>
       <c r="W7" t="s">
-        <v>240</v>
+        <v>265</v>
       </c>
       <c r="X7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>242</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>243</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="Y7"/>
+      <c r="Z7"/>
       <c r="AA7" t="s">
-        <v>244</v>
+        <v>267</v>
       </c>
       <c r="AB7" t="s">
-        <v>245</v>
+        <v>167</v>
       </c>
       <c r="AC7" t="s">
-        <v>246</v>
+        <v>168</v>
       </c>
       <c r="AD7" t="s">
-        <v>247</v>
+        <v>268</v>
       </c>
       <c r="AE7" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF7" t="s">
+        <v>270</v>
+      </c>
+      <c r="AG7" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>273</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>274</v>
+      </c>
+      <c r="AK7" t="s">
+        <v>275</v>
+      </c>
+      <c r="AL7" t="s">
+        <v>276</v>
+      </c>
+      <c r="AM7" t="s">
         <v>20</v>
       </c>
-      <c r="AF7" t="s">
-        <v>248</v>
-      </c>
-      <c r="AG7" s="2">
+      <c r="AN7" t="s">
+        <v>277</v>
+      </c>
+      <c r="AO7" s="2">
         <v>44686</v>
       </c>
-      <c r="AH7" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ7" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK7" t="s">
+      <c r="AP7" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ7" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR7" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS7" t="s">
         <v>21</v>
       </c>
-      <c r="AL7" s="3">
+      <c r="AT7" s="3">
         <v>400001</v>
       </c>
     </row>
-    <row r="8" spans="1:38">
+    <row r="8" spans="1:46">
       <c r="A8" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B8" t="s">
         <v>44</v>
@@ -6175,108 +6464,116 @@
         <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="F8" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="G8" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="H8" t="s">
-        <v>253</v>
-      </c>
-      <c r="I8" t="s">
-        <v>254</v>
-      </c>
-      <c r="J8" t="s">
-        <v>255</v>
-      </c>
-      <c r="K8" t="s">
-        <v>256</v>
-      </c>
-      <c r="L8" t="s">
-        <v>257</v>
-      </c>
-      <c r="M8" t="s">
-        <v>258</v>
-      </c>
-      <c r="N8" t="s">
-        <v>259</v>
-      </c>
-      <c r="O8" t="s">
-        <v>260</v>
-      </c>
-      <c r="P8" t="s">
-        <v>261</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="I8"/>
+      <c r="J8"/>
+      <c r="K8"/>
+      <c r="L8"/>
+      <c r="M8"/>
+      <c r="N8"/>
+      <c r="O8"/>
+      <c r="P8"/>
       <c r="Q8" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="R8" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="S8" t="s">
-        <v>264</v>
+        <v>285</v>
       </c>
       <c r="T8" t="s">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="U8" t="s">
-        <v>129</v>
+        <v>287</v>
       </c>
       <c r="V8" t="s">
-        <v>265</v>
+        <v>288</v>
       </c>
       <c r="W8" t="s">
-        <v>266</v>
+        <v>289</v>
       </c>
       <c r="X8" t="s">
-        <v>267</v>
+        <v>290</v>
       </c>
       <c r="Y8" t="s">
-        <v>268</v>
+        <v>291</v>
       </c>
       <c r="Z8" t="s">
-        <v>269</v>
+        <v>292</v>
       </c>
       <c r="AA8" t="s">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="AB8" t="s">
-        <v>271</v>
+        <v>138</v>
       </c>
       <c r="AC8" t="s">
-        <v>272</v>
+        <v>139</v>
       </c>
       <c r="AD8" t="s">
-        <v>273</v>
+        <v>294</v>
       </c>
       <c r="AE8" t="s">
+        <v>295</v>
+      </c>
+      <c r="AF8" t="s">
+        <v>296</v>
+      </c>
+      <c r="AG8" t="s">
+        <v>297</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>298</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>299</v>
+      </c>
+      <c r="AJ8" t="s">
+        <v>300</v>
+      </c>
+      <c r="AK8" t="s">
+        <v>301</v>
+      </c>
+      <c r="AL8" t="s">
+        <v>302</v>
+      </c>
+      <c r="AM8" t="s">
         <v>20</v>
       </c>
-      <c r="AG8" s="2">
+      <c r="AO8" s="2">
         <v>45052</v>
       </c>
-      <c r="AH8" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ8" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK8" t="s">
+      <c r="AP8" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR8" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS8" t="s">
         <v>21</v>
       </c>
-      <c r="AL8" s="3">
+      <c r="AT8" s="3">
         <v>1000001</v>
       </c>
     </row>
-    <row r="9" spans="1:38">
+    <row r="9" spans="1:46">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="B9" t="s">
         <v>48</v>
@@ -6290,84 +6587,108 @@
       <c r="E9"/>
       <c r="F9"/>
       <c r="G9" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="H9" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="I9" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="J9" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="K9" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="L9" t="s">
-        <v>280</v>
-      </c>
-      <c r="M9"/>
-      <c r="N9"/>
-      <c r="O9"/>
-      <c r="P9"/>
-      <c r="Q9"/>
-      <c r="R9"/>
+        <v>309</v>
+      </c>
+      <c r="M9" t="s">
+        <v>310</v>
+      </c>
+      <c r="N9" t="s">
+        <v>311</v>
+      </c>
+      <c r="O9" t="s">
+        <v>312</v>
+      </c>
+      <c r="P9" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>314</v>
+      </c>
+      <c r="R9" t="s">
+        <v>315</v>
+      </c>
       <c r="S9" t="s">
-        <v>127</v>
+        <v>316</v>
       </c>
       <c r="T9" t="s">
-        <v>155</v>
-      </c>
-      <c r="U9" t="s">
-        <v>156</v>
-      </c>
-      <c r="V9" t="s">
-        <v>281</v>
-      </c>
-      <c r="W9" t="s">
-        <v>282</v>
-      </c>
-      <c r="X9" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y9" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z9" t="s">
-        <v>285</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="U9"/>
+      <c r="V9"/>
+      <c r="W9"/>
+      <c r="X9"/>
+      <c r="Y9"/>
+      <c r="Z9"/>
       <c r="AA9" t="s">
-        <v>286</v>
-      </c>
-      <c r="AB9"/>
-      <c r="AC9"/>
-      <c r="AD9"/>
+        <v>137</v>
+      </c>
+      <c r="AB9" t="s">
+        <v>167</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD9" t="s">
+        <v>318</v>
+      </c>
       <c r="AE9" t="s">
+        <v>319</v>
+      </c>
+      <c r="AF9" t="s">
+        <v>320</v>
+      </c>
+      <c r="AG9" t="s">
+        <v>321</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>322</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>323</v>
+      </c>
+      <c r="AJ9"/>
+      <c r="AK9"/>
+      <c r="AL9"/>
+      <c r="AM9" t="s">
         <v>15</v>
       </c>
-      <c r="AG9" s="2">
+      <c r="AO9" s="2">
         <v>45052</v>
       </c>
-      <c r="AH9" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI9" t="s">
-        <v>287</v>
-      </c>
-      <c r="AJ9" t="s">
-        <v>288</v>
-      </c>
-      <c r="AK9" t="s">
+      <c r="AP9" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ9" t="s">
+        <v>324</v>
+      </c>
+      <c r="AR9" t="s">
+        <v>325</v>
+      </c>
+      <c r="AS9" t="s">
         <v>17</v>
       </c>
-      <c r="AL9" s="3">
+      <c r="AT9" s="3">
         <v>400001</v>
       </c>
     </row>
-    <row r="10" spans="1:38">
+    <row r="10" spans="1:46">
       <c r="A10" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
@@ -6382,105 +6703,129 @@
         <v>14</v>
       </c>
       <c r="F10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G10" t="s">
+        <v>327</v>
+      </c>
+      <c r="H10" t="s">
+        <v>328</v>
+      </c>
+      <c r="I10" t="s">
+        <v>329</v>
+      </c>
+      <c r="J10" t="s">
+        <v>330</v>
+      </c>
+      <c r="K10" t="s">
+        <v>331</v>
+      </c>
+      <c r="L10" t="s">
+        <v>332</v>
+      </c>
+      <c r="M10" t="s">
+        <v>333</v>
+      </c>
+      <c r="N10" t="s">
+        <v>334</v>
+      </c>
+      <c r="O10" t="s">
+        <v>335</v>
+      </c>
+      <c r="P10" t="s">
+        <v>336</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>337</v>
+      </c>
+      <c r="R10" t="s">
+        <v>328</v>
+      </c>
+      <c r="S10" t="s">
+        <v>125</v>
+      </c>
+      <c r="T10" t="s">
+        <v>252</v>
+      </c>
+      <c r="U10" t="s">
+        <v>338</v>
+      </c>
+      <c r="V10" t="s">
+        <v>339</v>
+      </c>
+      <c r="W10" t="s">
+        <v>340</v>
+      </c>
+      <c r="X10" t="s">
+        <v>341</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>343</v>
+      </c>
+      <c r="AA10" t="s">
+        <v>344</v>
+      </c>
+      <c r="AB10" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD10" t="s">
+        <v>345</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>346</v>
+      </c>
+      <c r="AF10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG10" t="s">
+        <v>347</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>349</v>
+      </c>
+      <c r="AJ10" t="s">
+        <v>350</v>
+      </c>
+      <c r="AK10" t="s">
+        <v>351</v>
+      </c>
+      <c r="AL10" t="s">
+        <v>352</v>
+      </c>
+      <c r="AM10" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>45052</v>
+      </c>
+      <c r="AP10" t="s">
         <v>149</v>
       </c>
-      <c r="G10" t="s">
-        <v>290</v>
-      </c>
-      <c r="H10" t="s">
-        <v>291</v>
-      </c>
-      <c r="I10" t="s">
-        <v>292</v>
-      </c>
-      <c r="J10" t="s">
-        <v>291</v>
-      </c>
-      <c r="K10" t="s">
-        <v>117</v>
-      </c>
-      <c r="L10" t="s">
-        <v>227</v>
-      </c>
-      <c r="M10" t="s">
-        <v>293</v>
-      </c>
-      <c r="N10" t="s">
-        <v>294</v>
-      </c>
-      <c r="O10" t="s">
-        <v>295</v>
-      </c>
-      <c r="P10" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>297</v>
-      </c>
-      <c r="R10" t="s">
-        <v>298</v>
-      </c>
-      <c r="S10" t="s">
-        <v>299</v>
-      </c>
-      <c r="T10" t="s">
-        <v>128</v>
-      </c>
-      <c r="U10" t="s">
-        <v>129</v>
-      </c>
-      <c r="V10" t="s">
-        <v>300</v>
-      </c>
-      <c r="W10" t="s">
-        <v>301</v>
-      </c>
-      <c r="X10" t="s">
-        <v>195</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>302</v>
-      </c>
-      <c r="Z10" t="s">
-        <v>303</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>304</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>305</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>307</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG10" s="2">
-        <v>45052</v>
-      </c>
-      <c r="AH10" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI10" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ10" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK10" t="s">
+      <c r="AQ10" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR10" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS10" t="s">
         <v>21</v>
       </c>
-      <c r="AL10" s="3">
+      <c r="AT10" s="3">
         <v>300001</v>
       </c>
     </row>
-    <row r="11" spans="1:38">
+    <row r="11" spans="1:46">
       <c r="A11" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
@@ -6489,107 +6834,119 @@
         <v>45051</v>
       </c>
       <c r="D11" t="s">
-        <v>309</v>
+        <v>354</v>
       </c>
       <c r="E11" t="s">
-        <v>310</v>
+        <v>231</v>
       </c>
       <c r="F11" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="G11" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="H11" t="s">
         <v>58</v>
       </c>
       <c r="I11" t="s">
-        <v>212</v>
+        <v>357</v>
       </c>
       <c r="J11" t="s">
-        <v>313</v>
-      </c>
-      <c r="K11" t="s">
-        <v>314</v>
-      </c>
-      <c r="L11" t="s">
-        <v>315</v>
-      </c>
-      <c r="M11" t="s">
-        <v>316</v>
-      </c>
-      <c r="N11" t="s">
-        <v>317</v>
-      </c>
-      <c r="O11" t="s">
-        <v>318</v>
-      </c>
-      <c r="P11" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q11"/>
-      <c r="R11"/>
+        <v>358</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11"/>
+      <c r="M11"/>
+      <c r="N11"/>
+      <c r="O11"/>
+      <c r="P11"/>
+      <c r="Q11" t="s">
+        <v>237</v>
+      </c>
+      <c r="R11" t="s">
+        <v>359</v>
+      </c>
       <c r="S11" t="s">
-        <v>320</v>
+        <v>360</v>
       </c>
       <c r="T11" t="s">
-        <v>155</v>
+        <v>361</v>
       </c>
       <c r="U11" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="V11" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="W11" t="s">
-        <v>235</v>
+        <v>364</v>
       </c>
       <c r="X11" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>322</v>
-      </c>
-      <c r="Z11" t="s">
-        <v>323</v>
-      </c>
+        <v>365</v>
+      </c>
+      <c r="Y11"/>
+      <c r="Z11"/>
       <c r="AA11" t="s">
-        <v>324</v>
+        <v>366</v>
       </c>
       <c r="AB11" t="s">
-        <v>325</v>
+        <v>167</v>
       </c>
       <c r="AC11" t="s">
-        <v>326</v>
+        <v>168</v>
       </c>
       <c r="AD11" t="s">
-        <v>327</v>
+        <v>367</v>
       </c>
       <c r="AE11" t="s">
+        <v>264</v>
+      </c>
+      <c r="AF11" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG11" t="s">
+        <v>368</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>369</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>370</v>
+      </c>
+      <c r="AJ11" t="s">
+        <v>371</v>
+      </c>
+      <c r="AK11" t="s">
+        <v>372</v>
+      </c>
+      <c r="AL11" t="s">
+        <v>373</v>
+      </c>
+      <c r="AM11" t="s">
         <v>20</v>
       </c>
-      <c r="AG11" s="2">
+      <c r="AO11" s="2">
         <v>45052</v>
       </c>
-      <c r="AH11" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI11" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ11" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK11" t="s">
+      <c r="AP11" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ11" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR11" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS11" t="s">
         <v>17</v>
       </c>
-      <c r="AL11" s="3">
+      <c r="AT11" s="3">
         <v>1100001</v>
       </c>
     </row>
-    <row r="12" spans="1:38">
+    <row r="12" spans="1:46">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="B12" t="s">
         <v>67</v>
@@ -6603,87 +6960,111 @@
       <c r="E12"/>
       <c r="F12"/>
       <c r="G12" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="H12" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="I12" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="J12" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="K12" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="L12" t="s">
-        <v>334</v>
-      </c>
-      <c r="M12"/>
-      <c r="N12"/>
-      <c r="O12"/>
-      <c r="P12"/>
-      <c r="Q12"/>
-      <c r="R12"/>
+        <v>380</v>
+      </c>
+      <c r="M12" t="s">
+        <v>381</v>
+      </c>
+      <c r="N12" t="s">
+        <v>382</v>
+      </c>
+      <c r="O12" t="s">
+        <v>181</v>
+      </c>
+      <c r="P12" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>384</v>
+      </c>
+      <c r="R12" t="s">
+        <v>385</v>
+      </c>
       <c r="S12" t="s">
-        <v>335</v>
+        <v>386</v>
       </c>
       <c r="T12" t="s">
-        <v>128</v>
-      </c>
-      <c r="U12" t="s">
-        <v>129</v>
-      </c>
-      <c r="V12" t="s">
-        <v>336</v>
-      </c>
-      <c r="W12" t="s">
-        <v>337</v>
-      </c>
-      <c r="X12" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>339</v>
-      </c>
-      <c r="Z12" t="s">
-        <v>340</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="U12"/>
+      <c r="V12"/>
+      <c r="W12"/>
+      <c r="X12"/>
+      <c r="Y12"/>
+      <c r="Z12"/>
       <c r="AA12" t="s">
-        <v>341</v>
-      </c>
-      <c r="AB12"/>
-      <c r="AC12"/>
-      <c r="AD12"/>
+        <v>388</v>
+      </c>
+      <c r="AB12" t="s">
+        <v>138</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>139</v>
+      </c>
+      <c r="AD12" t="s">
+        <v>389</v>
+      </c>
       <c r="AE12" t="s">
+        <v>390</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>392</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>393</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>394</v>
+      </c>
+      <c r="AJ12"/>
+      <c r="AK12"/>
+      <c r="AL12"/>
+      <c r="AM12" t="s">
         <v>15</v>
       </c>
-      <c r="AF12" t="s">
+      <c r="AN12" t="s">
         <v>32</v>
       </c>
-      <c r="AG12" s="2">
+      <c r="AO12" s="2">
         <v>45418</v>
       </c>
-      <c r="AH12" t="s">
-        <v>163</v>
-      </c>
-      <c r="AI12" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ12" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK12" t="s">
+      <c r="AP12" t="s">
+        <v>175</v>
+      </c>
+      <c r="AQ12" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR12" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS12" t="s">
         <v>17</v>
       </c>
-      <c r="AL12" s="3">
+      <c r="AT12" s="3">
         <v>1100001</v>
       </c>
     </row>
-    <row r="13" spans="1:38">
+    <row r="13" spans="1:46">
       <c r="A13" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="B13" t="s">
         <v>74</v>
@@ -6695,104 +7076,120 @@
         <v>75</v>
       </c>
       <c r="E13" t="s">
-        <v>343</v>
+        <v>396</v>
       </c>
       <c r="F13" t="s">
-        <v>344</v>
+        <v>397</v>
       </c>
       <c r="G13" t="s">
-        <v>345</v>
+        <v>398</v>
       </c>
       <c r="H13" t="s">
-        <v>346</v>
+        <v>399</v>
       </c>
       <c r="I13" t="s">
-        <v>347</v>
+        <v>213</v>
       </c>
       <c r="J13" t="s">
-        <v>348</v>
+        <v>400</v>
       </c>
       <c r="K13" t="s">
-        <v>349</v>
+        <v>401</v>
       </c>
       <c r="L13" t="s">
-        <v>350</v>
-      </c>
-      <c r="M13" t="s">
-        <v>351</v>
-      </c>
-      <c r="N13" t="s">
-        <v>352</v>
-      </c>
-      <c r="O13" t="s">
-        <v>353</v>
-      </c>
-      <c r="P13" t="s">
-        <v>354</v>
-      </c>
-      <c r="Q13"/>
-      <c r="R13"/>
+        <v>402</v>
+      </c>
+      <c r="M13"/>
+      <c r="N13"/>
+      <c r="O13"/>
+      <c r="P13"/>
+      <c r="Q13" t="s">
+        <v>403</v>
+      </c>
+      <c r="R13" t="s">
+        <v>404</v>
+      </c>
       <c r="S13" t="s">
-        <v>355</v>
+        <v>405</v>
       </c>
       <c r="T13" t="s">
-        <v>128</v>
+        <v>406</v>
       </c>
       <c r="U13" t="s">
-        <v>129</v>
+        <v>407</v>
       </c>
       <c r="V13" t="s">
-        <v>215</v>
+        <v>408</v>
       </c>
       <c r="W13" t="s">
-        <v>356</v>
+        <v>409</v>
       </c>
       <c r="X13" t="s">
-        <v>357</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>358</v>
-      </c>
-      <c r="Z13" t="s">
-        <v>132</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="Y13"/>
+      <c r="Z13"/>
       <c r="AA13" t="s">
-        <v>359</v>
+        <v>411</v>
       </c>
       <c r="AB13" t="s">
-        <v>360</v>
+        <v>138</v>
       </c>
       <c r="AC13" t="s">
-        <v>361</v>
+        <v>139</v>
       </c>
       <c r="AD13" t="s">
-        <v>362</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG13" t="s">
+        <v>414</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>142</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>415</v>
+      </c>
+      <c r="AJ13" t="s">
+        <v>416</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>417</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>418</v>
+      </c>
+      <c r="AM13" t="s">
         <v>20</v>
       </c>
-      <c r="AG13" s="2">
+      <c r="AO13" s="2">
         <v>45419</v>
       </c>
-      <c r="AH13" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI13" t="s">
-        <v>363</v>
-      </c>
-      <c r="AJ13" t="s">
-        <v>141</v>
-      </c>
-      <c r="AK13" t="s">
+      <c r="AP13" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ13" t="s">
+        <v>419</v>
+      </c>
+      <c r="AR13" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS13" t="s">
         <v>21</v>
       </c>
-      <c r="AL13" s="3">
+      <c r="AT13" s="3">
         <v>1000001</v>
       </c>
     </row>
-    <row r="14" spans="1:38">
+    <row r="14" spans="1:46">
       <c r="A14" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B14" t="s">
         <v>78</v>
@@ -6804,104 +7201,112 @@
         <v>79</v>
       </c>
       <c r="E14" t="s">
-        <v>365</v>
+        <v>421</v>
       </c>
       <c r="F14" t="s">
-        <v>366</v>
+        <v>422</v>
       </c>
       <c r="G14" t="s">
-        <v>367</v>
+        <v>423</v>
       </c>
       <c r="H14" t="s">
-        <v>368</v>
-      </c>
-      <c r="I14" t="s">
-        <v>226</v>
-      </c>
-      <c r="J14" t="s">
-        <v>366</v>
-      </c>
-      <c r="K14" t="s">
-        <v>369</v>
-      </c>
-      <c r="L14" t="s">
-        <v>370</v>
-      </c>
-      <c r="M14" t="s">
-        <v>371</v>
-      </c>
-      <c r="N14" t="s">
-        <v>372</v>
-      </c>
-      <c r="O14" t="s">
-        <v>373</v>
-      </c>
-      <c r="P14" t="s">
-        <v>374</v>
-      </c>
-      <c r="Q14"/>
-      <c r="R14"/>
+        <v>424</v>
+      </c>
+      <c r="I14"/>
+      <c r="J14"/>
+      <c r="K14"/>
+      <c r="L14"/>
+      <c r="M14"/>
+      <c r="N14"/>
+      <c r="O14"/>
+      <c r="P14"/>
+      <c r="Q14" t="s">
+        <v>251</v>
+      </c>
+      <c r="R14" t="s">
+        <v>422</v>
+      </c>
       <c r="S14" t="s">
-        <v>375</v>
+        <v>425</v>
       </c>
       <c r="T14" t="s">
-        <v>155</v>
+        <v>426</v>
       </c>
       <c r="U14" t="s">
-        <v>156</v>
+        <v>427</v>
       </c>
       <c r="V14" t="s">
-        <v>376</v>
+        <v>428</v>
       </c>
       <c r="W14" t="s">
-        <v>377</v>
+        <v>429</v>
       </c>
       <c r="X14" t="s">
-        <v>378</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>201</v>
-      </c>
-      <c r="Z14" t="s">
-        <v>379</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="Y14"/>
+      <c r="Z14"/>
       <c r="AA14" t="s">
-        <v>261</v>
+        <v>431</v>
       </c>
       <c r="AB14" t="s">
-        <v>380</v>
+        <v>167</v>
       </c>
       <c r="AC14" t="s">
-        <v>381</v>
+        <v>168</v>
       </c>
       <c r="AD14" t="s">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="AE14" t="s">
+        <v>433</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>434</v>
+      </c>
+      <c r="AG14" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>435</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>290</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>436</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>437</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>438</v>
+      </c>
+      <c r="AM14" t="s">
         <v>20</v>
       </c>
-      <c r="AG14" s="2">
+      <c r="AO14" s="2">
         <v>45418</v>
       </c>
-      <c r="AH14" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI14" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ14" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK14" t="s">
+      <c r="AP14" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ14" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR14" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS14" t="s">
         <v>17</v>
       </c>
-      <c r="AL14" s="3">
+      <c r="AT14" s="3">
         <v>1100001</v>
       </c>
     </row>
-    <row r="15" spans="1:38">
+    <row r="15" spans="1:46">
       <c r="A15" t="s">
-        <v>383</v>
+        <v>439</v>
       </c>
       <c r="B15" t="s">
         <v>85</v>
@@ -6913,107 +7318,111 @@
         <v>86</v>
       </c>
       <c r="E15" t="s">
-        <v>384</v>
+        <v>440</v>
       </c>
       <c r="F15" t="s">
-        <v>354</v>
+        <v>410</v>
       </c>
       <c r="G15" t="s">
-        <v>385</v>
+        <v>441</v>
       </c>
       <c r="H15" t="s">
-        <v>386</v>
-      </c>
-      <c r="I15" t="s">
-        <v>387</v>
-      </c>
-      <c r="J15" t="s">
-        <v>388</v>
-      </c>
-      <c r="K15" t="s">
-        <v>389</v>
-      </c>
-      <c r="L15" t="s">
-        <v>390</v>
-      </c>
-      <c r="M15" t="s">
-        <v>391</v>
-      </c>
-      <c r="N15" t="s">
-        <v>392</v>
-      </c>
-      <c r="O15" t="s">
-        <v>393</v>
-      </c>
-      <c r="P15" t="s">
-        <v>394</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="I15"/>
+      <c r="J15"/>
+      <c r="K15"/>
+      <c r="L15"/>
       <c r="Q15" t="s">
-        <v>395</v>
+        <v>443</v>
       </c>
       <c r="R15" t="s">
-        <v>396</v>
+        <v>444</v>
       </c>
       <c r="S15" t="s">
-        <v>397</v>
+        <v>445</v>
       </c>
       <c r="T15" t="s">
-        <v>128</v>
+        <v>446</v>
       </c>
       <c r="U15" t="s">
-        <v>129</v>
+        <v>447</v>
       </c>
       <c r="V15" t="s">
-        <v>398</v>
+        <v>448</v>
       </c>
       <c r="W15" t="s">
-        <v>399</v>
+        <v>449</v>
       </c>
       <c r="X15" t="s">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="Y15" t="s">
-        <v>401</v>
+        <v>451</v>
       </c>
       <c r="Z15" t="s">
-        <v>402</v>
+        <v>452</v>
       </c>
       <c r="AA15" t="s">
-        <v>403</v>
+        <v>453</v>
       </c>
       <c r="AB15" t="s">
-        <v>404</v>
+        <v>138</v>
       </c>
       <c r="AC15" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="AD15" t="s">
-        <v>405</v>
+        <v>454</v>
       </c>
       <c r="AE15" t="s">
+        <v>455</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG15" t="s">
+        <v>457</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>458</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>459</v>
+      </c>
+      <c r="AJ15" t="s">
+        <v>460</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>218</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>461</v>
+      </c>
+      <c r="AM15" t="s">
         <v>20</v>
       </c>
-      <c r="AG15" s="2">
+      <c r="AO15" s="2">
         <v>45420</v>
       </c>
-      <c r="AH15" t="s">
-        <v>139</v>
-      </c>
-      <c r="AI15" t="s">
-        <v>140</v>
-      </c>
-      <c r="AJ15" t="s">
-        <v>165</v>
-      </c>
-      <c r="AK15" t="s">
+      <c r="AP15" t="s">
+        <v>149</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>150</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS15" t="s">
         <v>17</v>
       </c>
-      <c r="AL15" s="3">
+      <c r="AT15" s="3">
         <v>400001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AM15" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AU15" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -7027,7 +7436,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7049,30 +7458,30 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>406</v>
+        <v>462</v>
       </c>
       <c r="D1" t="s">
-        <v>407</v>
+        <v>463</v>
       </c>
       <c r="E1" t="s">
-        <v>408</v>
+        <v>464</v>
       </c>
       <c r="F1" t="s">
-        <v>409</v>
+        <v>465</v>
       </c>
       <c r="G1" t="s">
-        <v>410</v>
+        <v>466</v>
       </c>
       <c r="H1" t="s">
-        <v>411</v>
+        <v>467</v>
       </c>
       <c r="I1" t="s">
-        <v>412</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -7085,10 +7494,10 @@
         <v>45051</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="F2" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="G2">
         <f>10000*I2</f>
@@ -7103,7 +7512,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
@@ -7116,10 +7525,10 @@
         <v>45052</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="F3" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G10" si="1">10000*I3</f>
@@ -7134,7 +7543,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -7147,10 +7556,10 @@
         <v>45052</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="F4" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
@@ -7165,7 +7574,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -7178,10 +7587,10 @@
         <v>45052</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="F5" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
@@ -7196,7 +7605,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B6" t="s">
         <v>44</v>
@@ -7209,10 +7618,10 @@
         <v>45418</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="F6" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
@@ -7227,7 +7636,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="B7" t="s">
         <v>57</v>
@@ -7240,10 +7649,10 @@
         <v>45417</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="F7" t="s">
-        <v>414</v>
+        <v>470</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
@@ -7258,7 +7667,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B8" t="s">
         <v>61</v>
@@ -7268,10 +7677,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="F8" t="s">
-        <v>421</v>
+        <v>477</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
@@ -7286,7 +7695,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s">
         <v>74</v>
@@ -7296,10 +7705,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="F9" t="s">
-        <v>423</v>
+        <v>479</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
@@ -7314,7 +7723,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
@@ -7324,10 +7733,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="F10" t="s">
-        <v>425</v>
+        <v>481</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
@@ -7351,8 +7760,8 @@
   <sheetPr/>
   <dimension ref="A1:L121"/>
   <sheetViews>
-    <sheetView topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7375,39 +7784,39 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>426</v>
+        <v>482</v>
       </c>
       <c r="D1" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="E1" t="s">
-        <v>428</v>
+        <v>484</v>
       </c>
       <c r="F1" t="s">
-        <v>429</v>
+        <v>485</v>
       </c>
       <c r="G1" t="s">
-        <v>430</v>
+        <v>486</v>
       </c>
       <c r="H1" t="s">
-        <v>431</v>
+        <v>487</v>
       </c>
       <c r="I1" t="s">
-        <v>432</v>
+        <v>488</v>
       </c>
       <c r="J1" t="s">
-        <v>433</v>
+        <v>489</v>
       </c>
       <c r="K1" t="s">
-        <v>434</v>
+        <v>490</v>
       </c>
       <c r="L1" t="s">
-        <v>435</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -7432,7 +7841,7 @@
         <v>44686</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -7448,7 +7857,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
@@ -7474,7 +7883,7 @@
         <v>44722</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="J3">
         <v>5</v>
@@ -7490,7 +7899,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -7516,7 +7925,7 @@
         <v>44751</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="J4">
         <v>3</v>
@@ -7532,7 +7941,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
@@ -7558,7 +7967,7 @@
         <v>44779</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -7574,7 +7983,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -7600,7 +8009,7 @@
         <v>44810</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -7616,7 +8025,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -7642,7 +8051,7 @@
         <v>44841</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -7658,7 +8067,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -7684,7 +8093,7 @@
         <v>44872</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -7700,7 +8109,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -7726,7 +8135,7 @@
         <v>44948</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="J9">
         <v>45</v>
@@ -7742,7 +8151,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -7768,7 +8177,7 @@
         <v>44953</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="J10">
         <v>19</v>
@@ -7784,7 +8193,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -7810,7 +8219,7 @@
         <v>44965</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -7826,7 +8235,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -7852,7 +8261,7 @@
         <v>44996</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>413</v>
+        <v>469</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -7868,7 +8277,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
@@ -7894,7 +8303,7 @@
         <v>45027</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -7910,7 +8319,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
@@ -7935,7 +8344,7 @@
         <v>44687</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -7951,7 +8360,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s">
         <v>27</v>
@@ -7977,7 +8386,7 @@
         <v>44718</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -7993,7 +8402,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s">
         <v>27</v>
@@ -8019,7 +8428,7 @@
         <v>44749</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -8035,7 +8444,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s">
         <v>27</v>
@@ -8061,7 +8470,7 @@
         <v>44780</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -8077,7 +8486,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s">
         <v>27</v>
@@ -8103,7 +8512,7 @@
         <v>44821</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="J18">
         <v>10</v>
@@ -8119,7 +8528,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s">
         <v>27</v>
@@ -8145,7 +8554,7 @@
         <v>44842</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -8161,7 +8570,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B20" t="s">
         <v>27</v>
@@ -8187,7 +8596,7 @@
         <v>44873</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -8203,7 +8612,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s">
         <v>27</v>
@@ -8229,7 +8638,7 @@
         <v>44907</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -8245,7 +8654,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B22" t="s">
         <v>27</v>
@@ -8271,7 +8680,7 @@
         <v>44935</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -8287,7 +8696,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B23" t="s">
         <v>27</v>
@@ -8313,7 +8722,7 @@
         <v>44966</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -8329,7 +8738,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
         <v>27</v>
@@ -8355,7 +8764,7 @@
         <v>44997</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -8371,7 +8780,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" t="s">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="B25" t="s">
         <v>27</v>
@@ -8397,7 +8806,7 @@
         <v>45028</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>415</v>
+        <v>471</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -8413,7 +8822,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s">
         <v>12</v>
@@ -8438,7 +8847,7 @@
         <v>44687</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -8454,7 +8863,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -8480,7 +8889,7 @@
         <v>44718</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -8496,7 +8905,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -8522,7 +8931,7 @@
         <v>44749</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -8538,7 +8947,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -8564,7 +8973,7 @@
         <v>44780</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -8580,7 +8989,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B30" t="s">
         <v>12</v>
@@ -8606,7 +9015,7 @@
         <v>44821</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="J30">
         <v>10</v>
@@ -8622,7 +9031,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B31" t="s">
         <v>12</v>
@@ -8648,7 +9057,7 @@
         <v>44842</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -8664,7 +9073,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B32" t="s">
         <v>12</v>
@@ -8690,7 +9099,7 @@
         <v>44945</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="J32">
         <v>72</v>
@@ -8706,7 +9115,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B33" t="s">
         <v>12</v>
@@ -8732,7 +9141,7 @@
         <v>44950</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="J33">
         <v>46</v>
@@ -8748,7 +9157,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B34" t="s">
         <v>12</v>
@@ -8774,7 +9183,7 @@
         <v>44953</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="J34">
         <v>18</v>
@@ -8790,7 +9199,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B35" t="s">
         <v>12</v>
@@ -8816,7 +9225,7 @@
         <v>44966</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -8832,7 +9241,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B36" t="s">
         <v>12</v>
@@ -8858,7 +9267,7 @@
         <v>44997</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -8874,7 +9283,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="B37" t="s">
         <v>12</v>
@@ -8900,7 +9309,7 @@
         <v>45028</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>416</v>
+        <v>472</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -8916,7 +9325,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s">
         <v>37</v>
@@ -8941,7 +9350,7 @@
         <v>44687</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -8957,7 +9366,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B39" t="s">
         <v>37</v>
@@ -8983,7 +9392,7 @@
         <v>44718</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -8999,7 +9408,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B40" t="s">
         <v>37</v>
@@ -9025,7 +9434,7 @@
         <v>44749</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -9041,7 +9450,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B41" t="s">
         <v>37</v>
@@ -9067,7 +9476,7 @@
         <v>44780</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -9083,7 +9492,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B42" t="s">
         <v>37</v>
@@ -9109,7 +9518,7 @@
         <v>44811</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -9125,7 +9534,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B43" t="s">
         <v>37</v>
@@ -9151,7 +9560,7 @@
         <v>44842</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -9167,7 +9576,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s">
         <v>37</v>
@@ -9193,7 +9602,7 @@
         <v>44873</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -9209,7 +9618,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B45" t="s">
         <v>37</v>
@@ -9235,7 +9644,7 @@
         <v>44904</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -9251,7 +9660,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B46" t="s">
         <v>37</v>
@@ -9277,7 +9686,7 @@
         <v>44935</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -9293,7 +9702,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B47" t="s">
         <v>37</v>
@@ -9319,7 +9728,7 @@
         <v>44966</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -9335,7 +9744,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s">
         <v>37</v>
@@ -9361,7 +9770,7 @@
         <v>44997</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -9377,7 +9786,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="B49" t="s">
         <v>37</v>
@@ -9403,7 +9812,7 @@
         <v>45028</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>417</v>
+        <v>473</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -9419,7 +9828,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s">
         <v>44</v>
@@ -9444,7 +9853,7 @@
         <v>45053</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -9460,7 +9869,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B51" t="s">
         <v>44</v>
@@ -9486,7 +9895,7 @@
         <v>45084</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -9502,7 +9911,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s">
         <v>44</v>
@@ -9528,7 +9937,7 @@
         <v>45115</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -9544,7 +9953,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B53" t="s">
         <v>44</v>
@@ -9570,7 +9979,7 @@
         <v>45146</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -9586,7 +9995,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B54" t="s">
         <v>44</v>
@@ -9612,7 +10021,7 @@
         <v>45177</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -9628,7 +10037,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B55" t="s">
         <v>44</v>
@@ -9654,7 +10063,7 @@
         <v>45208</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -9670,7 +10079,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B56" t="s">
         <v>44</v>
@@ -9696,7 +10105,7 @@
         <v>45239</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -9712,7 +10121,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B57" t="s">
         <v>44</v>
@@ -9738,7 +10147,7 @@
         <v>45270</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -9754,7 +10163,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B58" t="s">
         <v>44</v>
@@ -9780,7 +10189,7 @@
         <v>45301</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -9796,7 +10205,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B59" t="s">
         <v>44</v>
@@ -9822,7 +10231,7 @@
         <v>45332</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -9838,7 +10247,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B60" t="s">
         <v>44</v>
@@ -9864,7 +10273,7 @@
         <v>45363</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -9880,7 +10289,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="B61" t="s">
         <v>44</v>
@@ -9906,7 +10315,7 @@
         <v>45394</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>418</v>
+        <v>474</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -9922,7 +10331,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="B62" t="s">
         <v>57</v>
@@ -9947,7 +10356,7 @@
         <v>45052</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -9963,7 +10372,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="B63" t="s">
         <v>57</v>
@@ -9989,7 +10398,7 @@
         <v>45083</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -10005,7 +10414,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="B64" t="s">
         <v>57</v>
@@ -10031,7 +10440,7 @@
         <v>45114</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -10047,7 +10456,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="B65" t="s">
         <v>57</v>
@@ -10073,7 +10482,7 @@
         <v>45145</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -10089,7 +10498,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="B66" t="s">
         <v>57</v>
@@ -10115,7 +10524,7 @@
         <v>45176</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -10131,7 +10540,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="B67" t="s">
         <v>57</v>
@@ -10157,7 +10566,7 @@
         <v>45207</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -10173,7 +10582,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="B68" t="s">
         <v>57</v>
@@ -10199,7 +10608,7 @@
         <v>45238</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>436</v>
+        <v>492</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -10215,7 +10624,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="B69" t="s">
         <v>57</v>
@@ -10241,7 +10650,7 @@
         <v>45269</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -10257,7 +10666,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="B70" t="s">
         <v>57</v>
@@ -10283,7 +10692,7 @@
         <v>45300</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -10299,7 +10708,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="B71" t="s">
         <v>57</v>
@@ -10325,7 +10734,7 @@
         <v>45331</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -10341,7 +10750,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="B72" t="s">
         <v>57</v>
@@ -10367,7 +10776,7 @@
         <v>45362</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -10383,7 +10792,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>289</v>
+        <v>326</v>
       </c>
       <c r="B73" t="s">
         <v>57</v>
@@ -10409,7 +10818,7 @@
         <v>45393</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>419</v>
+        <v>475</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -10425,7 +10834,7 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B74" t="s">
         <v>61</v>
@@ -10450,7 +10859,7 @@
         <v>45052</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -10466,7 +10875,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B75" t="s">
         <v>61</v>
@@ -10492,7 +10901,7 @@
         <v>45083</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -10508,7 +10917,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B76" t="s">
         <v>61</v>
@@ -10534,7 +10943,7 @@
         <v>45114</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -10550,7 +10959,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B77" t="s">
         <v>61</v>
@@ -10576,7 +10985,7 @@
         <v>45145</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -10592,7 +11001,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B78" t="s">
         <v>61</v>
@@ -10618,7 +11027,7 @@
         <v>45176</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -10634,7 +11043,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B79" t="s">
         <v>61</v>
@@ -10660,7 +11069,7 @@
         <v>45207</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -10676,7 +11085,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B80" t="s">
         <v>61</v>
@@ -10702,7 +11111,7 @@
         <v>45238</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -10718,7 +11127,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B81" t="s">
         <v>61</v>
@@ -10744,7 +11153,7 @@
         <v>45269</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -10760,7 +11169,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B82" t="s">
         <v>61</v>
@@ -10786,7 +11195,7 @@
         <v>45300</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -10802,7 +11211,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B83" t="s">
         <v>61</v>
@@ -10828,7 +11237,7 @@
         <v>45331</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -10844,7 +11253,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B84" t="s">
         <v>61</v>
@@ -10870,7 +11279,7 @@
         <v>45362</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>420</v>
+        <v>476</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -10886,7 +11295,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" t="s">
-        <v>308</v>
+        <v>353</v>
       </c>
       <c r="B85" t="s">
         <v>61</v>
@@ -10920,7 +11329,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="B86" t="s">
         <v>74</v>
@@ -10945,7 +11354,7 @@
         <v>45420</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -10961,7 +11370,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="B87" t="s">
         <v>74</v>
@@ -10987,7 +11396,7 @@
         <v>45451</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -11003,7 +11412,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="B88" t="s">
         <v>74</v>
@@ -11029,7 +11438,7 @@
         <v>45482</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -11045,7 +11454,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="B89" t="s">
         <v>74</v>
@@ -11071,7 +11480,7 @@
         <v>45513</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -11087,7 +11496,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="B90" t="s">
         <v>74</v>
@@ -11113,7 +11522,7 @@
         <v>45544</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -11129,7 +11538,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="B91" t="s">
         <v>74</v>
@@ -11155,7 +11564,7 @@
         <v>45596</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>422</v>
+        <v>478</v>
       </c>
       <c r="J91">
         <v>21</v>
@@ -11171,7 +11580,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="B92" t="s">
         <v>74</v>
@@ -11205,7 +11614,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="B93" t="s">
         <v>74</v>
@@ -11239,7 +11648,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="B94" t="s">
         <v>74</v>
@@ -11273,7 +11682,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="B95" t="s">
         <v>74</v>
@@ -11307,7 +11716,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="B96" t="s">
         <v>74</v>
@@ -11341,7 +11750,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" t="s">
-        <v>342</v>
+        <v>395</v>
       </c>
       <c r="B97" t="s">
         <v>74</v>
@@ -11375,7 +11784,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B98" t="s">
         <v>78</v>
@@ -11400,7 +11809,7 @@
         <v>44842</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -11416,7 +11825,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B99" t="s">
         <v>78</v>
@@ -11442,7 +11851,7 @@
         <v>44907</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -11458,7 +11867,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B100" t="s">
         <v>78</v>
@@ -11484,7 +11893,7 @@
         <v>47353</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -11500,7 +11909,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B101" t="s">
         <v>78</v>
@@ -11526,7 +11935,7 @@
         <v>47384</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -11542,7 +11951,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B102" t="s">
         <v>78</v>
@@ -11568,7 +11977,7 @@
         <v>47415</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -11584,7 +11993,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B103" t="s">
         <v>78</v>
@@ -11610,7 +12019,7 @@
         <v>47446</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>424</v>
+        <v>480</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -11626,7 +12035,7 @@
     </row>
     <row r="104" spans="1:12">
       <c r="A104" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B104" t="s">
         <v>78</v>
@@ -11660,7 +12069,7 @@
     </row>
     <row r="105" spans="1:12">
       <c r="A105" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B105" t="s">
         <v>78</v>
@@ -11694,7 +12103,7 @@
     </row>
     <row r="106" spans="1:12">
       <c r="A106" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B106" t="s">
         <v>78</v>
@@ -11728,7 +12137,7 @@
     </row>
     <row r="107" spans="1:12">
       <c r="A107" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B107" t="s">
         <v>78</v>
@@ -11762,7 +12171,7 @@
     </row>
     <row r="108" spans="1:12">
       <c r="A108" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B108" t="s">
         <v>78</v>
@@ -11796,7 +12205,7 @@
     </row>
     <row r="109" spans="1:12">
       <c r="A109" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B109" t="s">
         <v>78</v>
@@ -11830,7 +12239,7 @@
     </row>
     <row r="110" spans="1:12">
       <c r="A110" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B110" t="s">
         <v>78</v>
@@ -11864,7 +12273,7 @@
     </row>
     <row r="111" spans="1:12">
       <c r="A111" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B111" t="s">
         <v>78</v>
@@ -11898,7 +12307,7 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B112" t="s">
         <v>78</v>
@@ -11932,7 +12341,7 @@
     </row>
     <row r="113" spans="1:12">
       <c r="A113" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B113" t="s">
         <v>78</v>
@@ -11966,7 +12375,7 @@
     </row>
     <row r="114" spans="1:12">
       <c r="A114" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B114" t="s">
         <v>78</v>
@@ -12000,7 +12409,7 @@
     </row>
     <row r="115" spans="1:12">
       <c r="A115" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B115" t="s">
         <v>78</v>
@@ -12034,7 +12443,7 @@
     </row>
     <row r="116" spans="1:12">
       <c r="A116" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B116" t="s">
         <v>78</v>
@@ -12068,7 +12477,7 @@
     </row>
     <row r="117" spans="1:12">
       <c r="A117" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B117" t="s">
         <v>78</v>
@@ -12102,7 +12511,7 @@
     </row>
     <row r="118" spans="1:12">
       <c r="A118" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B118" t="s">
         <v>78</v>
@@ -12136,7 +12545,7 @@
     </row>
     <row r="119" spans="1:12">
       <c r="A119" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B119" t="s">
         <v>78</v>
@@ -12170,7 +12579,7 @@
     </row>
     <row r="120" spans="1:12">
       <c r="A120" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B120" t="s">
         <v>78</v>
@@ -12204,7 +12613,7 @@
     </row>
     <row r="121" spans="1:12">
       <c r="A121" t="s">
-        <v>364</v>
+        <v>420</v>
       </c>
       <c r="B121" t="s">
         <v>78</v>
@@ -12267,19 +12676,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>437</v>
+        <v>493</v>
       </c>
       <c r="C1" t="s">
-        <v>438</v>
+        <v>494</v>
       </c>
       <c r="D1" t="s">
-        <v>439</v>
+        <v>495</v>
       </c>
       <c r="E1" t="s">
-        <v>440</v>
+        <v>496</v>
       </c>
       <c r="F1" t="s">
-        <v>441</v>
+        <v>497</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -12290,22 +12699,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>442</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C2" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="D2" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>445</v>
+        <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="G2" s="2">
         <v>44661</v>
@@ -12316,22 +12725,22 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>447</v>
+        <v>502</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>448</v>
+        <v>503</v>
       </c>
       <c r="D3" t="s">
-        <v>449</v>
+        <v>504</v>
       </c>
       <c r="E3" t="s">
-        <v>450</v>
+        <v>505</v>
       </c>
       <c r="F3" t="s">
-        <v>451</v>
+        <v>506</v>
       </c>
       <c r="G3" s="2">
         <v>44661</v>
@@ -12342,22 +12751,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>452</v>
+        <v>507</v>
       </c>
       <c r="B4" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C4" t="s">
-        <v>443</v>
+        <v>499</v>
       </c>
       <c r="D4" t="s">
-        <v>444</v>
+        <v>500</v>
       </c>
       <c r="E4" t="s">
-        <v>445</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
-        <v>446</v>
+        <v>501</v>
       </c>
       <c r="G4" s="2">
         <v>44661</v>
@@ -12368,22 +12777,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>453</v>
+        <v>508</v>
       </c>
       <c r="B5" t="s">
-        <v>454</v>
+        <v>509</v>
       </c>
       <c r="C5" t="s">
-        <v>455</v>
+        <v>510</v>
       </c>
       <c r="D5" t="s">
-        <v>456</v>
+        <v>511</v>
       </c>
       <c r="E5" t="s">
-        <v>457</v>
+        <v>512</v>
       </c>
       <c r="F5" t="s">
-        <v>458</v>
+        <v>513</v>
       </c>
       <c r="G5" s="2">
         <v>44661</v>
@@ -12394,22 +12803,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>514</v>
       </c>
       <c r="B6" t="s">
-        <v>460</v>
+        <v>515</v>
       </c>
       <c r="C6" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="D6" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="E6" t="s">
-        <v>462</v>
+        <v>517</v>
       </c>
       <c r="F6" t="s">
-        <v>463</v>
+        <v>518</v>
       </c>
       <c r="G6" s="2">
         <v>44661</v>
@@ -12429,7 +12838,7 @@
   <sheetPr/>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -12459,13 +12868,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>519</v>
       </c>
       <c r="B2" t="s">
-        <v>465</v>
+        <v>520</v>
       </c>
       <c r="C2" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="D2" s="2">
         <v>44691</v>
@@ -12476,13 +12885,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>467</v>
+        <v>522</v>
       </c>
       <c r="B3" t="s">
-        <v>468</v>
+        <v>523</v>
       </c>
       <c r="C3" t="s">
-        <v>469</v>
+        <v>524</v>
       </c>
       <c r="D3" s="2">
         <v>44691</v>
@@ -12493,13 +12902,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>470</v>
+        <v>525</v>
       </c>
       <c r="B4" t="s">
-        <v>471</v>
+        <v>526</v>
       </c>
       <c r="C4" t="s">
-        <v>472</v>
+        <v>527</v>
       </c>
       <c r="D4" s="2">
         <v>44691</v>
@@ -12510,13 +12919,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>473</v>
+        <v>528</v>
       </c>
       <c r="B5" t="s">
-        <v>474</v>
+        <v>529</v>
       </c>
       <c r="C5" t="s">
-        <v>475</v>
+        <v>530</v>
       </c>
       <c r="D5" s="2">
         <v>44691</v>
@@ -12527,13 +12936,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>476</v>
+        <v>531</v>
       </c>
       <c r="B6" t="s">
-        <v>477</v>
+        <v>532</v>
       </c>
       <c r="C6" t="s">
-        <v>478</v>
+        <v>533</v>
       </c>
       <c r="D6" s="2">
         <v>44691</v>
@@ -12544,13 +12953,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>479</v>
+        <v>534</v>
       </c>
       <c r="B7" t="s">
-        <v>480</v>
+        <v>535</v>
       </c>
       <c r="C7" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="D7" s="2">
         <v>44691</v>
@@ -12561,13 +12970,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>481</v>
+        <v>536</v>
       </c>
       <c r="B8" t="s">
-        <v>482</v>
+        <v>537</v>
       </c>
       <c r="C8" t="s">
-        <v>483</v>
+        <v>538</v>
       </c>
       <c r="D8" s="2">
         <v>44691</v>
@@ -12601,50 +13010,50 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>485</v>
+        <v>540</v>
       </c>
       <c r="D1" t="s">
-        <v>486</v>
+        <v>541</v>
       </c>
       <c r="E1" t="s">
-        <v>487</v>
+        <v>542</v>
       </c>
       <c r="F1" t="s">
-        <v>488</v>
+        <v>543</v>
       </c>
       <c r="G1" t="s">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="H1" t="s">
-        <v>490</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>492</v>
+        <v>547</v>
       </c>
       <c r="D2" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="E2" t="str">
         <f>VLOOKUP(B2,autofin_sectrial!$B$1:$F$15,4,FALSE)</f>
         <v>certno_1001</v>
       </c>
       <c r="F2" t="str">
-        <f>VLOOKUP(B2,autofin_sectrial!$B$1:$AB$15,26,FALSE)</f>
-        <v>tel_9001</v>
+        <f>VLOOKUP(B2,autofin_sectrial!$B$1:$AJ$15,26,FALSE)</f>
+        <v>vin_0001</v>
       </c>
       <c r="G2" t="str">
         <f>VLOOKUP(B2,autofin_sectrial!$B$1:$F$15,5,FALSE)</f>
@@ -12657,25 +13066,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="D3" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="E3" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="F3" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="G3" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="H3" s="1">
         <f>VLOOKUP(B3,autofin_pretrial!$B$1:$C$21,2,FALSE)</f>
@@ -12684,24 +13093,24 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>501</v>
+        <v>556</v>
       </c>
       <c r="D4" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="E4" t="str">
         <f>VLOOKUP(B4,autofin_sectrial!$B$1:$F$15,4,FALSE)</f>
         <v>certno_0003</v>
       </c>
       <c r="F4" t="str">
-        <f>VLOOKUP(B4,autofin_sectrial!$B$1:$AB$15,26,FALSE)</f>
-        <v>tel_9003</v>
+        <f>VLOOKUP(B4,autofin_sectrial!$B$1:$AJ$15,26,FALSE)</f>
+        <v>vin_0003</v>
       </c>
       <c r="G4" t="str">
         <f>VLOOKUP(B4,autofin_sectrial!$B$1:$F$15,5,FALSE)</f>
@@ -12714,24 +13123,24 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="D5" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="E5" t="str">
         <f>VLOOKUP(B5,autofin_sectrial!$B$1:$F$15,4,FALSE)</f>
         <v>certno_1006</v>
       </c>
       <c r="F5" t="str">
-        <f>VLOOKUP(B5,autofin_sectrial!$B$1:$AB$15,26,FALSE)</f>
-        <v>tel_9006</v>
+        <f>VLOOKUP(B5,autofin_sectrial!$B$1:$AJ$15,26,FALSE)</f>
+        <v>vin_0006</v>
       </c>
       <c r="G5" t="str">
         <f>VLOOKUP(B5,autofin_sectrial!$B$1:$F$15,5,FALSE)</f>
@@ -12744,25 +13153,25 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>506</v>
+        <v>561</v>
       </c>
       <c r="D6" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="E6" t="s">
-        <v>507</v>
+        <v>562</v>
       </c>
       <c r="F6" t="s">
-        <v>508</v>
+        <v>563</v>
       </c>
       <c r="G6" t="s">
-        <v>509</v>
+        <v>564</v>
       </c>
       <c r="H6" s="1">
         <f>VLOOKUP(B6,autofin_pretrial!$B$1:$C$21,2,FALSE)</f>
@@ -12771,23 +13180,23 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>511</v>
+        <v>566</v>
       </c>
       <c r="D7" t="s">
-        <v>512</v>
+        <v>567</v>
       </c>
       <c r="E7" t="s">
-        <v>513</v>
+        <v>568</v>
       </c>
       <c r="F7" t="str">
-        <f>VLOOKUP(B7,autofin_sectrial!$B$1:$AB$15,26,FALSE)</f>
-        <v>tel_9007</v>
+        <f>VLOOKUP(B7,autofin_sectrial!$B$1:$AJ$15,26,FALSE)</f>
+        <v>vin_0007</v>
       </c>
       <c r="G7" t="str">
         <f>VLOOKUP(B7,autofin_sectrial!$B$1:$F$15,5,FALSE)</f>
@@ -12800,16 +13209,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
       </c>
       <c r="C8" t="s">
-        <v>515</v>
+        <v>570</v>
       </c>
       <c r="D8" t="s">
-        <v>516</v>
+        <v>571</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -12821,25 +13230,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>517</v>
+        <v>572</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>518</v>
+        <v>573</v>
       </c>
       <c r="D9" t="s">
-        <v>519</v>
+        <v>574</v>
       </c>
       <c r="E9" t="s">
-        <v>513</v>
+        <v>568</v>
       </c>
       <c r="F9" t="s">
-        <v>520</v>
+        <v>575</v>
       </c>
       <c r="G9" t="s">
-        <v>521</v>
+        <v>576</v>
       </c>
       <c r="H9" s="1">
         <f>VLOOKUP(B9,autofin_pretrial!$B$1:$C$21,2,FALSE)</f>
@@ -12848,24 +13257,24 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
       </c>
       <c r="C10" t="s">
-        <v>523</v>
+        <v>578</v>
       </c>
       <c r="D10" t="s">
-        <v>524</v>
+        <v>579</v>
       </c>
       <c r="E10" t="str">
         <f>VLOOKUP(B10,autofin_sectrial!$B$1:$F$15,4,FALSE)</f>
         <v>certno_2001</v>
       </c>
       <c r="F10" t="str">
-        <f>VLOOKUP(B10,autofin_sectrial!$B$1:$AB$15,26,FALSE)</f>
-        <v>tel_9009</v>
+        <f>VLOOKUP(B10,autofin_sectrial!$B$1:$AJ$15,26,FALSE)</f>
+        <v>vin_0009</v>
       </c>
       <c r="G10" t="str">
         <f>VLOOKUP(B10,autofin_sectrial!$B$1:$F$15,5,FALSE)</f>
@@ -12878,25 +13287,25 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>525</v>
+        <v>580</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
       </c>
       <c r="C11" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>526</v>
+        <v>581</v>
       </c>
       <c r="E11" t="s">
-        <v>527</v>
+        <v>582</v>
       </c>
       <c r="F11" t="s">
-        <v>528</v>
+        <v>583</v>
       </c>
       <c r="G11" t="s">
-        <v>529</v>
+        <v>584</v>
       </c>
       <c r="H11" s="1">
         <f>VLOOKUP(B11,autofin_pretrial!$B$1:$C$21,2,FALSE)</f>
@@ -12905,16 +13314,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>530</v>
+        <v>585</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" t="s">
-        <v>531</v>
+        <v>586</v>
       </c>
       <c r="D12" t="s">
-        <v>532</v>
+        <v>587</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -12926,16 +13335,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>533</v>
+        <v>588</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
       </c>
       <c r="C13" t="s">
-        <v>534</v>
+        <v>589</v>
       </c>
       <c r="D13" t="s">
-        <v>535</v>
+        <v>590</v>
       </c>
       <c r="E13"/>
       <c r="F13"/>
@@ -12947,16 +13356,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
       </c>
       <c r="C14" t="s">
-        <v>537</v>
+        <v>592</v>
       </c>
       <c r="D14" t="s">
-        <v>538</v>
+        <v>593</v>
       </c>
       <c r="E14"/>
       <c r="F14"/>
@@ -12968,23 +13377,23 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>539</v>
+        <v>594</v>
       </c>
       <c r="B15" t="s">
         <v>74</v>
       </c>
       <c r="C15" t="s">
-        <v>540</v>
+        <v>595</v>
       </c>
       <c r="D15" t="s">
-        <v>541</v>
+        <v>596</v>
       </c>
       <c r="E15" t="s">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="F15" t="str">
-        <f>VLOOKUP(B15,autofin_sectrial!$B$1:$AB$15,26,FALSE)</f>
-        <v>tel_9012</v>
+        <f>VLOOKUP(B15,autofin_sectrial!$B$1:$AJ$15,26,FALSE)</f>
+        <v>vin_0012</v>
       </c>
       <c r="G15" t="str">
         <f>VLOOKUP(B15,autofin_sectrial!$B$1:$F$15,5,FALSE)</f>
@@ -12997,24 +13406,24 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>543</v>
+        <v>598</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
       </c>
       <c r="C16" t="s">
-        <v>544</v>
+        <v>599</v>
       </c>
       <c r="D16" t="s">
-        <v>545</v>
+        <v>600</v>
       </c>
       <c r="E16" t="str">
         <f>VLOOKUP(B16,autofin_sectrial!$B$1:$F$15,4,FALSE)</f>
         <v>certno_1013</v>
       </c>
       <c r="F16" t="str">
-        <f>VLOOKUP(B16,autofin_sectrial!$B$1:$AB$15,26,FALSE)</f>
-        <v>tel_6007</v>
+        <f>VLOOKUP(B16,autofin_sectrial!$B$1:$AJ$15,26,FALSE)</f>
+        <v>vin_0013</v>
       </c>
       <c r="G16" t="str">
         <f>VLOOKUP(B16,autofin_sectrial!$B$1:$F$15,5,FALSE)</f>
@@ -13027,25 +13436,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>546</v>
+        <v>601</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>547</v>
+        <v>602</v>
       </c>
       <c r="D17" t="s">
-        <v>548</v>
+        <v>603</v>
       </c>
       <c r="E17" t="s">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="F17" t="s">
-        <v>549</v>
+        <v>604</v>
       </c>
       <c r="G17" t="s">
-        <v>550</v>
+        <v>605</v>
       </c>
       <c r="H17" s="1">
         <f>VLOOKUP(B17,autofin_pretrial!$B$1:$C$21,2,FALSE)</f>
@@ -13054,24 +13463,24 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>551</v>
+        <v>606</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
       </c>
       <c r="C18" t="s">
-        <v>552</v>
+        <v>607</v>
       </c>
       <c r="D18" t="s">
-        <v>553</v>
+        <v>608</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP(B18,autofin_sectrial!$B$1:$F$15,4,FALSE)</f>
         <v>certno_1014</v>
       </c>
       <c r="F18" t="str">
-        <f>VLOOKUP(B18,autofin_sectrial!$B$1:$AB$15,26,FALSE)</f>
-        <v>tel_9014</v>
+        <f>VLOOKUP(B18,autofin_sectrial!$B$1:$AJ$15,26,FALSE)</f>
+        <v>vin_0014</v>
       </c>
       <c r="G18" t="str">
         <f>VLOOKUP(B18,autofin_sectrial!$B$1:$F$15,5,FALSE)</f>
@@ -13093,8 +13502,8 @@
   <sheetPr/>
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -13105,27 +13514,27 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>554</v>
+        <v>609</v>
       </c>
       <c r="D1" t="s">
-        <v>555</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="D2" s="1">
         <v>44668</v>
@@ -13133,13 +13542,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>557</v>
+        <v>612</v>
       </c>
       <c r="D3" s="1">
         <v>44663</v>
@@ -13147,13 +13556,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>558</v>
+        <v>613</v>
       </c>
       <c r="D4" s="1">
         <v>44604</v>
@@ -13161,13 +13570,13 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>559</v>
+        <v>614</v>
       </c>
       <c r="D5" s="1">
         <v>44592</v>
@@ -13175,13 +13584,13 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="D6" s="1">
         <v>44643</v>
@@ -13189,13 +13598,13 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>560</v>
+        <v>615</v>
       </c>
       <c r="D7" s="1">
         <v>44677</v>
@@ -13203,13 +13612,13 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>561</v>
+        <v>616</v>
       </c>
       <c r="D8" s="1">
         <v>44632</v>
@@ -13217,13 +13626,13 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>562</v>
+        <v>617</v>
       </c>
       <c r="D9" s="1">
         <v>44628</v>
@@ -13231,13 +13640,13 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>563</v>
+        <v>618</v>
       </c>
       <c r="D10" s="1">
         <v>44629</v>
@@ -13245,13 +13654,13 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>564</v>
+        <v>619</v>
       </c>
       <c r="D11" s="1">
         <v>44639</v>
@@ -13259,13 +13668,13 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>565</v>
+        <v>620</v>
       </c>
       <c r="D12" s="1">
         <v>44654</v>
@@ -13273,13 +13682,13 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>566</v>
+        <v>621</v>
       </c>
       <c r="D13" s="1">
         <v>44647</v>
@@ -13287,13 +13696,13 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="D14" s="1">
         <v>44662</v>
@@ -13301,13 +13710,13 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>567</v>
+        <v>622</v>
       </c>
       <c r="D15" s="1">
         <v>44675</v>
@@ -13315,13 +13724,13 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>568</v>
+        <v>623</v>
       </c>
       <c r="D16" s="1">
         <v>44950</v>
@@ -13329,13 +13738,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>569</v>
+        <v>624</v>
       </c>
       <c r="D17" s="1">
         <v>44971</v>
@@ -13343,13 +13752,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>570</v>
+        <v>625</v>
       </c>
       <c r="D18" s="1">
         <v>44978</v>
@@ -13357,13 +13766,13 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>571</v>
+        <v>626</v>
       </c>
       <c r="D19" s="1">
         <v>44979</v>
@@ -13371,13 +13780,13 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>572</v>
+        <v>627</v>
       </c>
       <c r="D20" s="1">
         <v>44994</v>
@@ -13385,13 +13794,13 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D21" s="1">
         <v>45013</v>
@@ -13399,13 +13808,13 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>573</v>
+        <v>628</v>
       </c>
       <c r="D22" s="1">
         <v>45018</v>
@@ -13413,13 +13822,13 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>574</v>
+        <v>629</v>
       </c>
       <c r="D23" s="1">
         <v>45045</v>
@@ -13427,13 +13836,13 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>575</v>
+        <v>630</v>
       </c>
       <c r="D24" s="1">
         <v>45031</v>
@@ -13441,13 +13850,13 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>466</v>
+        <v>521</v>
       </c>
       <c r="D25" s="1">
         <v>44970</v>
@@ -13455,13 +13864,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>576</v>
+        <v>631</v>
       </c>
       <c r="D26" s="1">
         <v>45042</v>
@@ -13469,13 +13878,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>577</v>
+        <v>632</v>
       </c>
       <c r="D27" s="1">
         <v>44975</v>
@@ -13483,13 +13892,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>578</v>
+        <v>633</v>
       </c>
       <c r="D28" s="1">
         <v>45001</v>
@@ -13497,13 +13906,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>579</v>
+        <v>634</v>
       </c>
       <c r="D29" s="1">
         <v>44962</v>
@@ -13511,13 +13920,13 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>525</v>
+        <v>580</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>580</v>
+        <v>635</v>
       </c>
       <c r="D30" s="1">
         <v>45032</v>
@@ -13525,13 +13934,13 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>525</v>
+        <v>580</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>581</v>
+        <v>636</v>
       </c>
       <c r="D31" s="1">
         <v>44968</v>
@@ -13539,13 +13948,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>525</v>
+        <v>580</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="D32" s="1">
         <v>45042</v>
@@ -13553,13 +13962,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>530</v>
+        <v>585</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>582</v>
+        <v>637</v>
       </c>
       <c r="D33" s="1">
         <v>45041</v>
@@ -13567,13 +13976,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>530</v>
+        <v>585</v>
       </c>
       <c r="B34" t="s">
         <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>583</v>
+        <v>638</v>
       </c>
       <c r="D34" s="1">
         <v>44966</v>
@@ -13581,13 +13990,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>533</v>
+        <v>588</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>584</v>
+        <v>639</v>
       </c>
       <c r="D35" s="1">
         <v>45394</v>
@@ -13595,13 +14004,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>533</v>
+        <v>588</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>585</v>
+        <v>640</v>
       </c>
       <c r="D36" s="1">
         <v>45406</v>
@@ -13609,13 +14018,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>533</v>
+        <v>588</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>586</v>
+        <v>641</v>
       </c>
       <c r="D37" s="1">
         <v>45405</v>
@@ -13623,13 +14032,13 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="B38" t="s">
         <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>587</v>
+        <v>642</v>
       </c>
       <c r="D38" s="1">
         <v>45409</v>
@@ -13637,13 +14046,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="B39" t="s">
         <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>588</v>
+        <v>643</v>
       </c>
       <c r="D39" s="1">
         <v>45358</v>
@@ -13651,13 +14060,13 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="B40" t="s">
         <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="D40" s="1">
         <v>45352</v>
@@ -13665,13 +14074,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>539</v>
+        <v>594</v>
       </c>
       <c r="B41" t="s">
         <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>589</v>
+        <v>644</v>
       </c>
       <c r="D41" s="1">
         <v>45408</v>
@@ -13679,13 +14088,13 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>539</v>
+        <v>594</v>
       </c>
       <c r="B42" t="s">
         <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>590</v>
+        <v>645</v>
       </c>
       <c r="D42" s="1">
         <v>45402</v>
@@ -13693,13 +14102,13 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>539</v>
+        <v>594</v>
       </c>
       <c r="B43" t="s">
         <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>591</v>
+        <v>646</v>
       </c>
       <c r="D43" s="1">
         <v>45383</v>
@@ -13707,13 +14116,13 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>543</v>
+        <v>598</v>
       </c>
       <c r="B44" t="s">
         <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>592</v>
+        <v>647</v>
       </c>
       <c r="D44" s="1">
         <v>45336</v>
@@ -13721,13 +14130,13 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>543</v>
+        <v>598</v>
       </c>
       <c r="B45" t="s">
         <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D45" s="1">
         <v>45379</v>
@@ -13735,13 +14144,13 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>546</v>
+        <v>601</v>
       </c>
       <c r="B46" t="s">
         <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>593</v>
+        <v>648</v>
       </c>
       <c r="D46" s="1">
         <v>45374</v>
@@ -13749,13 +14158,13 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>551</v>
+        <v>606</v>
       </c>
       <c r="B47" t="s">
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>594</v>
+        <v>649</v>
       </c>
       <c r="D47" s="1">
         <v>45385</v>
@@ -13786,33 +14195,33 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>484</v>
+        <v>539</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>595</v>
+        <v>650</v>
       </c>
       <c r="D1" t="s">
-        <v>596</v>
+        <v>651</v>
       </c>
       <c r="E1" t="s">
-        <v>597</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>493</v>
+        <v>548</v>
       </c>
       <c r="D2" t="s">
-        <v>598</v>
+        <v>653</v>
       </c>
       <c r="E2" s="1">
         <v>44668</v>
@@ -13820,16 +14229,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>599</v>
+        <v>654</v>
       </c>
       <c r="D3" t="s">
-        <v>600</v>
+        <v>655</v>
       </c>
       <c r="E3" s="1">
         <v>44663</v>
@@ -13837,16 +14246,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E4" s="1">
         <v>44604</v>
@@ -13854,16 +14263,16 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>491</v>
+        <v>546</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>502</v>
+        <v>557</v>
       </c>
       <c r="D5" t="s">
-        <v>601</v>
+        <v>656</v>
       </c>
       <c r="E5" s="1">
         <v>44592</v>
@@ -13871,16 +14280,16 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>461</v>
+        <v>516</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="E6" s="1">
         <v>44643</v>
@@ -13888,16 +14297,16 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>602</v>
+        <v>657</v>
       </c>
       <c r="D7" t="s">
-        <v>603</v>
+        <v>658</v>
       </c>
       <c r="E7" s="1">
         <v>44677</v>
@@ -13905,16 +14314,16 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>504</v>
+        <v>559</v>
       </c>
       <c r="D8" t="s">
-        <v>604</v>
+        <v>659</v>
       </c>
       <c r="E8" s="1">
         <v>44632</v>
@@ -13922,16 +14331,16 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>605</v>
+        <v>660</v>
       </c>
       <c r="D9" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="E9" s="1">
         <v>44628</v>
@@ -13939,16 +14348,16 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>512</v>
+        <v>567</v>
       </c>
       <c r="D10" t="s">
-        <v>606</v>
+        <v>661</v>
       </c>
       <c r="E10" s="1">
         <v>44629</v>
@@ -13956,16 +14365,16 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>516</v>
+        <v>571</v>
       </c>
       <c r="D11" t="s">
-        <v>607</v>
+        <v>662</v>
       </c>
       <c r="E11" s="1">
         <v>44639</v>
@@ -13973,16 +14382,16 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>519</v>
+        <v>574</v>
       </c>
       <c r="D12" t="s">
-        <v>608</v>
+        <v>663</v>
       </c>
       <c r="E12" s="1">
         <v>44654</v>
@@ -13990,16 +14399,16 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>524</v>
+        <v>579</v>
       </c>
       <c r="D13" t="s">
-        <v>609</v>
+        <v>664</v>
       </c>
       <c r="E13" s="1">
         <v>44647</v>
@@ -14007,16 +14416,16 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="D14" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="E14" s="1">
         <v>44662</v>
@@ -14024,16 +14433,16 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>503</v>
+        <v>558</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>532</v>
+        <v>587</v>
       </c>
       <c r="D15" t="s">
-        <v>610</v>
+        <v>665</v>
       </c>
       <c r="E15" s="1">
         <v>44675</v>
@@ -14041,16 +14450,16 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>535</v>
+        <v>590</v>
       </c>
       <c r="D16" t="s">
-        <v>611</v>
+        <v>666</v>
       </c>
       <c r="E16" s="1">
         <v>44950</v>
@@ -14058,13 +14467,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>538</v>
+        <v>593</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -14075,16 +14484,16 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>541</v>
+        <v>596</v>
       </c>
       <c r="D18" t="s">
-        <v>612</v>
+        <v>667</v>
       </c>
       <c r="E18" s="1">
         <v>44978</v>
@@ -14092,16 +14501,16 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>505</v>
+        <v>560</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>545</v>
+        <v>600</v>
       </c>
       <c r="D19" t="s">
-        <v>613</v>
+        <v>668</v>
       </c>
       <c r="E19" s="1">
         <v>44979</v>
@@ -14109,16 +14518,16 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>548</v>
+        <v>603</v>
       </c>
       <c r="D20" t="s">
-        <v>614</v>
+        <v>669</v>
       </c>
       <c r="E20" s="1">
         <v>44994</v>
@@ -14126,16 +14535,16 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>615</v>
+        <v>670</v>
       </c>
       <c r="D21" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E21" s="1">
         <v>45013</v>
@@ -14143,16 +14552,16 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>510</v>
+        <v>565</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>616</v>
+        <v>671</v>
       </c>
       <c r="D22" t="s">
-        <v>617</v>
+        <v>672</v>
       </c>
       <c r="E22" s="1">
         <v>45018</v>
@@ -14160,16 +14569,16 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>618</v>
+        <v>673</v>
       </c>
       <c r="D23" t="s">
-        <v>619</v>
+        <v>674</v>
       </c>
       <c r="E23" s="1">
         <v>45045</v>
@@ -14177,16 +14586,16 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>514</v>
+        <v>569</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>620</v>
+        <v>675</v>
       </c>
       <c r="D24" t="s">
-        <v>621</v>
+        <v>676</v>
       </c>
       <c r="E24" s="1">
         <v>45031</v>
@@ -14194,16 +14603,16 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>622</v>
+        <v>677</v>
       </c>
       <c r="D25" t="s">
-        <v>623</v>
+        <v>678</v>
       </c>
       <c r="E25" s="1">
         <v>44970</v>
@@ -14211,16 +14620,16 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>624</v>
+        <v>679</v>
       </c>
       <c r="D26" t="s">
-        <v>625</v>
+        <v>680</v>
       </c>
       <c r="E26" s="1">
         <v>45042</v>
@@ -14228,16 +14637,16 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>626</v>
+        <v>681</v>
       </c>
       <c r="D27" t="s">
-        <v>627</v>
+        <v>682</v>
       </c>
       <c r="E27" s="1">
         <v>44975</v>
@@ -14245,16 +14654,16 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>628</v>
+        <v>683</v>
       </c>
       <c r="D28" t="s">
-        <v>629</v>
+        <v>684</v>
       </c>
       <c r="E28" s="1">
         <v>45001</v>
@@ -14262,16 +14671,16 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>522</v>
+        <v>577</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>630</v>
+        <v>685</v>
       </c>
       <c r="D29" t="s">
-        <v>579</v>
+        <v>634</v>
       </c>
       <c r="E29" s="1">
         <v>44962</v>
@@ -14279,16 +14688,16 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>525</v>
+        <v>580</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>631</v>
+        <v>686</v>
       </c>
       <c r="D30" t="s">
-        <v>632</v>
+        <v>687</v>
       </c>
       <c r="E30" s="1">
         <v>45032</v>
@@ -14296,16 +14705,16 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>525</v>
+        <v>580</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>633</v>
+        <v>688</v>
       </c>
       <c r="D31" t="s">
-        <v>634</v>
+        <v>689</v>
       </c>
       <c r="E31" s="1">
         <v>44968</v>
@@ -14313,16 +14722,16 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>525</v>
+        <v>580</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>635</v>
+        <v>690</v>
       </c>
       <c r="D32" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="E32" s="1">
         <v>45042</v>
@@ -14330,16 +14739,16 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>530</v>
+        <v>585</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>636</v>
+        <v>691</v>
       </c>
       <c r="D33" t="s">
-        <v>637</v>
+        <v>692</v>
       </c>
       <c r="E33" s="1">
         <v>45041</v>
@@ -14347,16 +14756,16 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>530</v>
+        <v>585</v>
       </c>
       <c r="B34" t="s">
         <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>638</v>
+        <v>693</v>
       </c>
       <c r="D34" t="s">
-        <v>639</v>
+        <v>694</v>
       </c>
       <c r="E34" s="1">
         <v>44966</v>
@@ -14364,13 +14773,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>533</v>
+        <v>588</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>640</v>
+        <v>695</v>
       </c>
       <c r="D35" t="s">
         <v>75</v>
@@ -14381,16 +14790,16 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>533</v>
+        <v>588</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>641</v>
+        <v>696</v>
       </c>
       <c r="D36" t="s">
-        <v>642</v>
+        <v>697</v>
       </c>
       <c r="E36" s="1">
         <v>45406</v>
@@ -14398,16 +14807,16 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>533</v>
+        <v>588</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>643</v>
+        <v>698</v>
       </c>
       <c r="D37" t="s">
-        <v>644</v>
+        <v>699</v>
       </c>
       <c r="E37" s="1">
         <v>45405</v>
@@ -14415,16 +14824,16 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="B38" t="s">
         <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>645</v>
+        <v>700</v>
       </c>
       <c r="D38" t="s">
-        <v>646</v>
+        <v>701</v>
       </c>
       <c r="E38" s="1">
         <v>45409</v>
@@ -14432,16 +14841,16 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="B39" t="s">
         <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>647</v>
+        <v>702</v>
       </c>
       <c r="D39" t="s">
-        <v>648</v>
+        <v>703</v>
       </c>
       <c r="E39" s="1">
         <v>45358</v>
@@ -14449,16 +14858,16 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>536</v>
+        <v>591</v>
       </c>
       <c r="B40" t="s">
         <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>649</v>
+        <v>704</v>
       </c>
       <c r="D40" t="s">
-        <v>377</v>
+        <v>433</v>
       </c>
       <c r="E40" s="1">
         <v>45352</v>
@@ -14466,16 +14875,16 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>539</v>
+        <v>594</v>
       </c>
       <c r="B41" t="s">
         <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>650</v>
+        <v>705</v>
       </c>
       <c r="D41" t="s">
-        <v>651</v>
+        <v>706</v>
       </c>
       <c r="E41" s="1">
         <v>45408</v>
@@ -14483,16 +14892,16 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>539</v>
+        <v>594</v>
       </c>
       <c r="B42" t="s">
         <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>652</v>
+        <v>707</v>
       </c>
       <c r="D42" t="s">
-        <v>653</v>
+        <v>708</v>
       </c>
       <c r="E42" s="1">
         <v>45402</v>
@@ -14500,16 +14909,16 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>539</v>
+        <v>594</v>
       </c>
       <c r="B43" t="s">
         <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>654</v>
+        <v>709</v>
       </c>
       <c r="D43" t="s">
-        <v>655</v>
+        <v>710</v>
       </c>
       <c r="E43" s="1">
         <v>45383</v>
@@ -14517,16 +14926,16 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>543</v>
+        <v>598</v>
       </c>
       <c r="B44" t="s">
         <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>656</v>
+        <v>711</v>
       </c>
       <c r="D44" t="s">
-        <v>657</v>
+        <v>712</v>
       </c>
       <c r="E44" s="1">
         <v>45336</v>
@@ -14534,16 +14943,16 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>543</v>
+        <v>598</v>
       </c>
       <c r="B45" t="s">
         <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>658</v>
+        <v>713</v>
       </c>
       <c r="D45" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E45" s="1">
         <v>45379</v>
@@ -14551,16 +14960,16 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>546</v>
+        <v>601</v>
       </c>
       <c r="B46" t="s">
         <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>659</v>
+        <v>714</v>
       </c>
       <c r="D46" t="s">
-        <v>660</v>
+        <v>715</v>
       </c>
       <c r="E46" s="1">
         <v>45374</v>
@@ -14568,16 +14977,16 @@
     </row>
     <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>551</v>
+        <v>606</v>
       </c>
       <c r="B47" t="s">
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>661</v>
+        <v>716</v>
       </c>
       <c r="D47" t="s">
-        <v>662</v>
+        <v>717</v>
       </c>
       <c r="E47" s="1">
         <v>45385</v>

--- a/assets/autofin/autofin_mock_20241101.xlsx
+++ b/assets/autofin/autofin_mock_20241101.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="9135" activeTab="1"/>
+    <workbookView windowWidth="22185" windowHeight="9135" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="autofin_pretrial" sheetId="1" r:id="rId1"/>
@@ -1528,7 +1528,7 @@
     <t>org_addr</t>
   </si>
   <si>
-    <t>orgname</t>
+    <t>org_name</t>
   </si>
   <si>
     <t>rep_certno</t>
@@ -5522,8 +5522,8 @@
   <sheetPr/>
   <dimension ref="A1:AT15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P19" sqref="P19"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -12656,8 +12656,8 @@
   <sheetPr/>
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>

--- a/assets/autofin/autofin_mock_20241101.xlsx
+++ b/assets/autofin/autofin_mock_20241101.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\kali-linux\home\xyy15926\code\aki7proj\assets\autofin\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650760E4-D4D4-47CE-B857-9029FC65CEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="22185" windowHeight="9135" activeTab="4"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="23236" windowHeight="13875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="autofin_pretrial" sheetId="1" r:id="rId1"/>
@@ -32,8 +38,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1453,9 +1457,6 @@
     <t>paccno_0001</t>
   </si>
   <si>
-    <t>inact</t>
-  </si>
-  <si>
     <t>paccno_0002</t>
   </si>
   <si>
@@ -2579,20 +2580,20 @@
   </si>
   <si>
     <t>PF05AR03</t>
+  </si>
+  <si>
+    <t>cls</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+  <numFmts count="1">
+    <numFmt numFmtId="178" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2601,345 +2602,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2947,251 +2633,9 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3199,99 +2643,168 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="17">
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <border>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <top style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+      <border>
+        <bottom style="thin">
+          <color theme="4" tint="0.39994506668294322"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79995117038483843"/>
+          <bgColor theme="4" tint="0.79995117038483843"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="1"/>
       </font>
       <border>
@@ -3302,7 +2815,7 @@
     </dxf>
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
         <color theme="0"/>
       </font>
       <fill>
@@ -3330,154 +2843,40 @@
           <color theme="4"/>
         </bottom>
         <horizontal style="thin">
-          <color theme="4" tint="0.399975585192419"/>
+          <color theme="4" tint="0.39994506668294322"/>
         </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <border>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <top style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="1"/>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.799981688894314"/>
-          <bgColor theme="4" tint="0.799981688894314"/>
-        </patternFill>
-      </fill>
-      <border>
-        <bottom style="thin">
-          <color theme="4" tint="0.399975585192419"/>
-        </bottom>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStylePreset3_Accent1" defaultPivotStyle="PivotStylePreset2_Accent1">
     <tableStyle name="TableStylePreset3_Accent1" pivot="0" count="7" xr9:uid="{59DB682C-5494-4EDE-A608-00C9E5F0F923}">
-      <tableStyleElement type="wholeTable" dxfId="6"/>
-      <tableStyleElement type="headerRow" dxfId="5"/>
-      <tableStyleElement type="totalRow" dxfId="4"/>
-      <tableStyleElement type="firstColumn" dxfId="3"/>
-      <tableStyleElement type="lastColumn" dxfId="2"/>
-      <tableStyleElement type="firstRowStripe" dxfId="1"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="15"/>
+      <tableStyleElement type="totalRow" dxfId="14"/>
+      <tableStyleElement type="firstColumn" dxfId="13"/>
+      <tableStyleElement type="lastColumn" dxfId="12"/>
+      <tableStyleElement type="firstRowStripe" dxfId="11"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="10"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
-      <tableStyleElement type="headerRow" dxfId="16"/>
-      <tableStyleElement type="totalRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="13"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="12"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="11"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="10"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="9"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="8"/>
-      <tableStyleElement type="pageFieldValues" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="9"/>
+      <tableStyleElement type="totalRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="6"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="5"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="4"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="3"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="2"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="1"/>
+      <tableStyleElement type="pageFieldValues" dxfId="0"/>
     </tableStyle>
   </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3727,31 +3126,31 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="6" width="17.125" customWidth="1"/>
-    <col min="7" max="7" width="27.125" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
-    <col min="10" max="10" width="13.75" customWidth="1"/>
-    <col min="11" max="11" width="8.375" style="3" customWidth="1"/>
+    <col min="1" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.46484375" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" customWidth="1"/>
+    <col min="5" max="6" width="17.1328125" customWidth="1"/>
+    <col min="7" max="7" width="27.1328125" customWidth="1"/>
+    <col min="8" max="8" width="14.86328125" customWidth="1"/>
+    <col min="10" max="10" width="13.73046875" customWidth="1"/>
+    <col min="11" max="11" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3782,11 +3181,11 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -3817,11 +3216,11 @@
       <c r="J2" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="3">
+      <c r="K2">
         <v>100001</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -3840,7 +3239,6 @@
       <c r="F3" t="s">
         <v>20</v>
       </c>
-      <c r="G3"/>
       <c r="H3" s="2">
         <v>44682</v>
       </c>
@@ -3850,11 +3248,11 @@
       <c r="J3" t="s">
         <v>21</v>
       </c>
-      <c r="K3" s="3">
+      <c r="K3">
         <v>200001</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -3885,11 +3283,11 @@
       <c r="J4" t="s">
         <v>21</v>
       </c>
-      <c r="K4" s="3">
+      <c r="K4">
         <v>900001</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -3920,11 +3318,11 @@
       <c r="J5" t="s">
         <v>17</v>
       </c>
-      <c r="K5" s="3">
+      <c r="K5">
         <v>800001</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -3955,11 +3353,11 @@
       <c r="J6" t="s">
         <v>17</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6">
         <v>200001</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -3990,11 +3388,11 @@
       <c r="J7" t="s">
         <v>17</v>
       </c>
-      <c r="K7" s="3">
+      <c r="K7">
         <v>200001</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>36</v>
       </c>
@@ -4013,7 +3411,6 @@
       <c r="F8" t="s">
         <v>20</v>
       </c>
-      <c r="G8"/>
       <c r="H8" s="2">
         <v>44684</v>
       </c>
@@ -4023,11 +3420,11 @@
       <c r="J8" t="s">
         <v>21</v>
       </c>
-      <c r="K8" s="3">
+      <c r="K8">
         <v>200001</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -4058,11 +3455,11 @@
       <c r="J9" t="s">
         <v>17</v>
       </c>
-      <c r="K9" s="3">
+      <c r="K9">
         <v>200001</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -4093,11 +3490,11 @@
       <c r="J10" t="s">
         <v>21</v>
       </c>
-      <c r="K10" s="3">
+      <c r="K10">
         <v>800001</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>47</v>
       </c>
@@ -4128,11 +3525,11 @@
       <c r="J11" t="s">
         <v>17</v>
       </c>
-      <c r="K11" s="3">
+      <c r="K11">
         <v>200001</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -4163,11 +3560,11 @@
       <c r="J12" t="s">
         <v>17</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12">
         <v>200001</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>56</v>
       </c>
@@ -4198,11 +3595,11 @@
       <c r="J13" t="s">
         <v>21</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13">
         <v>100001</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -4233,11 +3630,11 @@
       <c r="J14" t="s">
         <v>17</v>
       </c>
-      <c r="K14" s="3">
+      <c r="K14">
         <v>900001</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>63</v>
       </c>
@@ -4268,11 +3665,11 @@
       <c r="J15" t="s">
         <v>17</v>
       </c>
-      <c r="K15" s="3">
+      <c r="K15">
         <v>800001</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>66</v>
       </c>
@@ -4303,11 +3700,11 @@
       <c r="J16" t="s">
         <v>17</v>
       </c>
-      <c r="K16" s="3">
+      <c r="K16">
         <v>900001</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>69</v>
       </c>
@@ -4338,11 +3735,11 @@
       <c r="J17" t="s">
         <v>21</v>
       </c>
-      <c r="K17" s="3">
+      <c r="K17">
         <v>200001</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>73</v>
       </c>
@@ -4373,11 +3770,11 @@
       <c r="J18" t="s">
         <v>21</v>
       </c>
-      <c r="K18" s="3">
+      <c r="K18">
         <v>800001</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>77</v>
       </c>
@@ -4408,11 +3805,11 @@
       <c r="J19" t="s">
         <v>17</v>
       </c>
-      <c r="K19" s="3">
+      <c r="K19">
         <v>900001</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>81</v>
       </c>
@@ -4443,11 +3840,11 @@
       <c r="J20" t="s">
         <v>21</v>
       </c>
-      <c r="K20" s="3">
+      <c r="K20">
         <v>800001</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>84</v>
       </c>
@@ -4478,147 +3875,144 @@
       <c r="J21" t="s">
         <v>17</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21">
         <v>200001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:K21" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:K21" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="6" width="10.375" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.46484375" customWidth="1"/>
+    <col min="4" max="6" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>717</v>
+      </c>
+      <c r="D1" t="s">
         <v>718</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>719</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>720</v>
       </c>
-      <c r="F1" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>721</v>
+      </c>
+      <c r="D2" t="s">
         <v>722</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>723</v>
-      </c>
-      <c r="E2" t="s">
-        <v>724</v>
       </c>
       <c r="F2" s="1">
         <v>44668</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>724</v>
+      </c>
+      <c r="D3" t="s">
         <v>725</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>726</v>
-      </c>
-      <c r="E3" t="s">
-        <v>727</v>
       </c>
       <c r="F3" s="1">
         <v>44663</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
+        <v>727</v>
+      </c>
+      <c r="D4" t="s">
         <v>728</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>729</v>
-      </c>
-      <c r="E4" t="s">
-        <v>730</v>
       </c>
       <c r="F4" s="1">
         <v>44604</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
+        <v>730</v>
+      </c>
+      <c r="D5" t="s">
         <v>731</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>732</v>
-      </c>
-      <c r="E5" t="s">
-        <v>733</v>
       </c>
       <c r="F5" s="1">
         <v>44592</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E6" t="s">
         <v>236</v>
@@ -4627,155 +4021,155 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>734</v>
+      </c>
+      <c r="D7" t="s">
         <v>735</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>736</v>
-      </c>
-      <c r="E7" t="s">
-        <v>737</v>
       </c>
       <c r="F7" s="1">
         <v>44677</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
+        <v>737</v>
+      </c>
+      <c r="D8" t="s">
         <v>738</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>739</v>
-      </c>
-      <c r="E8" t="s">
-        <v>740</v>
       </c>
       <c r="F8" s="1">
         <v>44632</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
+        <v>740</v>
+      </c>
+      <c r="D9" t="s">
         <v>741</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
         <v>742</v>
-      </c>
-      <c r="E9" t="s">
-        <v>743</v>
       </c>
       <c r="F9" s="1">
         <v>44628</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
+        <v>743</v>
+      </c>
+      <c r="D10" t="s">
         <v>744</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>745</v>
-      </c>
-      <c r="E10" t="s">
-        <v>746</v>
       </c>
       <c r="F10" s="1">
         <v>44629</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
+        <v>746</v>
+      </c>
+      <c r="D11" t="s">
         <v>747</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>748</v>
-      </c>
-      <c r="E11" t="s">
-        <v>749</v>
       </c>
       <c r="F11" s="1">
         <v>44639</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
+        <v>749</v>
+      </c>
+      <c r="D12" t="s">
         <v>750</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>751</v>
-      </c>
-      <c r="E12" t="s">
-        <v>752</v>
       </c>
       <c r="F12" s="1">
         <v>44654</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
+        <v>752</v>
+      </c>
+      <c r="D13" t="s">
         <v>753</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>754</v>
-      </c>
-      <c r="E13" t="s">
-        <v>755</v>
       </c>
       <c r="F13" s="1">
         <v>44647</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
       </c>
       <c r="C14" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D14" t="s">
         <v>298</v>
@@ -4787,58 +4181,58 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="s">
+        <v>756</v>
+      </c>
+      <c r="D15" t="s">
         <v>757</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>758</v>
-      </c>
-      <c r="E15" t="s">
-        <v>759</v>
       </c>
       <c r="F15" s="1">
         <v>44675</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
       </c>
       <c r="C16" t="s">
+        <v>759</v>
+      </c>
+      <c r="D16" t="s">
         <v>760</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>761</v>
-      </c>
-      <c r="E16" t="s">
-        <v>762</v>
       </c>
       <c r="F16" s="1">
         <v>44950</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
       <c r="C17" t="s">
+        <v>762</v>
+      </c>
+      <c r="D17" t="s">
         <v>763</v>
-      </c>
-      <c r="D17" t="s">
-        <v>764</v>
       </c>
       <c r="E17" t="s">
         <v>221</v>
@@ -4847,78 +4241,78 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
+        <v>764</v>
+      </c>
+      <c r="D18" t="s">
         <v>765</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>766</v>
-      </c>
-      <c r="E18" t="s">
-        <v>767</v>
       </c>
       <c r="F18" s="1">
         <v>44978</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
       <c r="C19" t="s">
+        <v>767</v>
+      </c>
+      <c r="D19" t="s">
         <v>768</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
         <v>769</v>
-      </c>
-      <c r="E19" t="s">
-        <v>770</v>
       </c>
       <c r="F19" s="1">
         <v>44979</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
       <c r="C20" t="s">
+        <v>770</v>
+      </c>
+      <c r="D20" t="s">
         <v>771</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>772</v>
-      </c>
-      <c r="E20" t="s">
-        <v>773</v>
       </c>
       <c r="F20" s="1">
         <v>44994</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="D21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="E21" t="s">
         <v>136</v>
@@ -4927,218 +4321,218 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
       <c r="C22" t="s">
+        <v>774</v>
+      </c>
+      <c r="D22" t="s">
         <v>775</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>776</v>
-      </c>
-      <c r="E22" t="s">
-        <v>777</v>
       </c>
       <c r="F22" s="1">
         <v>45018</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23" t="s">
+        <v>777</v>
+      </c>
+      <c r="D23" t="s">
         <v>778</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>779</v>
-      </c>
-      <c r="E23" t="s">
-        <v>780</v>
       </c>
       <c r="F23" s="1">
         <v>45045</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
       <c r="C24" t="s">
+        <v>780</v>
+      </c>
+      <c r="D24" t="s">
         <v>781</v>
       </c>
-      <c r="D24" t="s">
-        <v>782</v>
-      </c>
       <c r="E24" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="F24" s="1">
         <v>45031</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
       </c>
       <c r="C25" t="s">
+        <v>782</v>
+      </c>
+      <c r="D25" t="s">
         <v>783</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>784</v>
-      </c>
-      <c r="E25" t="s">
-        <v>785</v>
       </c>
       <c r="F25" s="1">
         <v>44970</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
       <c r="C26" t="s">
+        <v>785</v>
+      </c>
+      <c r="D26" t="s">
         <v>786</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>787</v>
-      </c>
-      <c r="E26" t="s">
-        <v>788</v>
       </c>
       <c r="F26" s="1">
         <v>45042</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
       </c>
       <c r="C27" t="s">
+        <v>788</v>
+      </c>
+      <c r="D27" t="s">
         <v>789</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>790</v>
-      </c>
-      <c r="E27" t="s">
-        <v>791</v>
       </c>
       <c r="F27" s="1">
         <v>44975</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
       <c r="C28" t="s">
+        <v>791</v>
+      </c>
+      <c r="D28" t="s">
         <v>792</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>793</v>
-      </c>
-      <c r="E28" t="s">
-        <v>794</v>
       </c>
       <c r="F28" s="1">
         <v>45001</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D29" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="F29" s="1">
         <v>44962</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
       </c>
       <c r="C30" t="s">
+        <v>795</v>
+      </c>
+      <c r="D30" t="s">
         <v>796</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>797</v>
-      </c>
-      <c r="E30" t="s">
-        <v>798</v>
       </c>
       <c r="F30" s="1">
         <v>45032</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
       <c r="C31" t="s">
+        <v>798</v>
+      </c>
+      <c r="D31" t="s">
         <v>799</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>800</v>
-      </c>
-      <c r="E31" t="s">
-        <v>801</v>
       </c>
       <c r="F31" s="1">
         <v>44968</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D32" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="E32" t="s">
         <v>191</v>
@@ -5147,158 +4541,158 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
       </c>
       <c r="C33" t="s">
+        <v>802</v>
+      </c>
+      <c r="D33" t="s">
         <v>803</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>804</v>
-      </c>
-      <c r="E33" t="s">
-        <v>805</v>
       </c>
       <c r="F33" s="1">
         <v>45041</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B34" t="s">
         <v>64</v>
       </c>
       <c r="C34" t="s">
+        <v>805</v>
+      </c>
+      <c r="D34" t="s">
         <v>806</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>807</v>
-      </c>
-      <c r="E34" t="s">
-        <v>808</v>
       </c>
       <c r="F34" s="1">
         <v>44966</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
       </c>
       <c r="C35" t="s">
+        <v>808</v>
+      </c>
+      <c r="D35" t="s">
         <v>809</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>810</v>
-      </c>
-      <c r="E35" t="s">
-        <v>811</v>
       </c>
       <c r="F35" s="1">
         <v>45394</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
       </c>
       <c r="C36" t="s">
+        <v>811</v>
+      </c>
+      <c r="D36" t="s">
         <v>812</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>813</v>
-      </c>
-      <c r="E36" t="s">
-        <v>814</v>
       </c>
       <c r="F36" s="1">
         <v>45406</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
       </c>
       <c r="C37" t="s">
+        <v>814</v>
+      </c>
+      <c r="D37" t="s">
         <v>815</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>816</v>
-      </c>
-      <c r="E37" t="s">
-        <v>817</v>
       </c>
       <c r="F37" s="1">
         <v>45405</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B38" t="s">
         <v>70</v>
       </c>
       <c r="C38" t="s">
+        <v>817</v>
+      </c>
+      <c r="D38" t="s">
         <v>818</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>819</v>
-      </c>
-      <c r="E38" t="s">
-        <v>820</v>
       </c>
       <c r="F38" s="1">
         <v>45409</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B39" t="s">
         <v>70</v>
       </c>
       <c r="C39" t="s">
+        <v>820</v>
+      </c>
+      <c r="D39" t="s">
         <v>821</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>822</v>
-      </c>
-      <c r="E39" t="s">
-        <v>823</v>
       </c>
       <c r="F39" s="1">
         <v>45358</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B40" t="s">
         <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D40" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E40" t="s">
         <v>433</v>
@@ -5307,98 +4701,98 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B41" t="s">
         <v>74</v>
       </c>
       <c r="C41" t="s">
+        <v>824</v>
+      </c>
+      <c r="D41" t="s">
         <v>825</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>826</v>
-      </c>
-      <c r="E41" t="s">
-        <v>827</v>
       </c>
       <c r="F41" s="1">
         <v>45408</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B42" t="s">
         <v>74</v>
       </c>
       <c r="C42" t="s">
+        <v>827</v>
+      </c>
+      <c r="D42" t="s">
         <v>828</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>829</v>
-      </c>
-      <c r="E42" t="s">
-        <v>830</v>
       </c>
       <c r="F42" s="1">
         <v>45402</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B43" t="s">
         <v>74</v>
       </c>
       <c r="C43" t="s">
+        <v>830</v>
+      </c>
+      <c r="D43" t="s">
         <v>831</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>832</v>
-      </c>
-      <c r="E43" t="s">
-        <v>833</v>
       </c>
       <c r="F43" s="1">
         <v>45383</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B44" t="s">
         <v>78</v>
       </c>
       <c r="C44" t="s">
+        <v>833</v>
+      </c>
+      <c r="D44" t="s">
         <v>834</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>835</v>
-      </c>
-      <c r="E44" t="s">
-        <v>836</v>
       </c>
       <c r="F44" s="1">
         <v>45336</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B45" t="s">
         <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="D45" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E45" t="s">
         <v>145</v>
@@ -5407,168 +4801,165 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B46" t="s">
         <v>82</v>
       </c>
       <c r="C46" t="s">
+        <v>837</v>
+      </c>
+      <c r="D46" t="s">
         <v>838</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>839</v>
-      </c>
-      <c r="E46" t="s">
-        <v>840</v>
       </c>
       <c r="F46" s="1">
         <v>45374</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B47" t="s">
         <v>85</v>
       </c>
       <c r="C47" t="s">
+        <v>840</v>
+      </c>
+      <c r="D47" t="s">
         <v>841</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>842</v>
-      </c>
-      <c r="E47" t="s">
-        <v>843</v>
       </c>
       <c r="F47" s="1">
         <v>45385</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="9.375"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.46484375" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>843</v>
+      </c>
+      <c r="D1" t="s">
         <v>844</v>
       </c>
-      <c r="D1" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B2" t="s">
         <v>44</v>
       </c>
       <c r="C2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="D2" s="1">
         <v>44994</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B3" t="s">
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D3" s="2">
         <v>44593</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AT15"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="11.5" customWidth="1"/>
-    <col min="4" max="4" width="9.375" customWidth="1"/>
-    <col min="5" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375" customWidth="1"/>
-    <col min="9" max="9" width="13.75" customWidth="1"/>
-    <col min="10" max="10" width="9.375" customWidth="1"/>
-    <col min="11" max="11" width="13.75" customWidth="1"/>
-    <col min="12" max="12" width="9.375" customWidth="1"/>
-    <col min="13" max="13" width="13.75" customWidth="1"/>
-    <col min="14" max="14" width="9.375" customWidth="1"/>
-    <col min="15" max="15" width="13.75" customWidth="1"/>
-    <col min="16" max="16" width="9.375" customWidth="1"/>
-    <col min="17" max="17" width="12.625" customWidth="1"/>
-    <col min="18" max="18" width="9.375" customWidth="1"/>
-    <col min="19" max="19" width="12.625" customWidth="1"/>
-    <col min="20" max="20" width="9.375" customWidth="1"/>
-    <col min="21" max="21" width="12.625" customWidth="1"/>
-    <col min="22" max="22" width="9.375" customWidth="1"/>
-    <col min="23" max="23" width="12.625" customWidth="1"/>
-    <col min="24" max="24" width="9.375" customWidth="1"/>
-    <col min="25" max="25" width="12.625" customWidth="1"/>
-    <col min="26" max="27" width="9.375" customWidth="1"/>
+    <col min="1" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="11.46484375" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" customWidth="1"/>
+    <col min="5" max="7" width="12.59765625" customWidth="1"/>
+    <col min="8" max="8" width="9.3984375" customWidth="1"/>
+    <col min="9" max="9" width="13.73046875" customWidth="1"/>
+    <col min="10" max="10" width="9.3984375" customWidth="1"/>
+    <col min="11" max="11" width="13.73046875" customWidth="1"/>
+    <col min="12" max="12" width="9.3984375" customWidth="1"/>
+    <col min="13" max="13" width="13.73046875" customWidth="1"/>
+    <col min="14" max="14" width="9.3984375" customWidth="1"/>
+    <col min="15" max="15" width="13.73046875" customWidth="1"/>
+    <col min="16" max="16" width="9.3984375" customWidth="1"/>
+    <col min="17" max="17" width="12.59765625" customWidth="1"/>
+    <col min="18" max="18" width="9.3984375" customWidth="1"/>
+    <col min="19" max="19" width="12.59765625" customWidth="1"/>
+    <col min="20" max="20" width="9.3984375" customWidth="1"/>
+    <col min="21" max="21" width="12.59765625" customWidth="1"/>
+    <col min="22" max="22" width="9.3984375" customWidth="1"/>
+    <col min="23" max="23" width="12.59765625" customWidth="1"/>
+    <col min="24" max="24" width="9.3984375" customWidth="1"/>
+    <col min="25" max="25" width="12.59765625" customWidth="1"/>
+    <col min="26" max="27" width="9.3984375" customWidth="1"/>
     <col min="28" max="29" width="16" customWidth="1"/>
-    <col min="30" max="30" width="10.375" customWidth="1"/>
-    <col min="32" max="32" width="10.375" customWidth="1"/>
-    <col min="33" max="33" width="11.5" customWidth="1"/>
-    <col min="34" max="34" width="10.375" customWidth="1"/>
-    <col min="36" max="36" width="14.125" customWidth="1"/>
+    <col min="30" max="30" width="10.3984375" customWidth="1"/>
+    <col min="32" max="32" width="10.3984375" customWidth="1"/>
+    <col min="33" max="33" width="11.46484375" customWidth="1"/>
+    <col min="34" max="34" width="10.3984375" customWidth="1"/>
+    <col min="36" max="36" width="14.1328125" customWidth="1"/>
     <col min="37" max="37" width="16" customWidth="1"/>
-    <col min="38" max="38" width="14.875" customWidth="1"/>
-    <col min="39" max="39" width="14.625" customWidth="1"/>
+    <col min="38" max="38" width="14.86328125" customWidth="1"/>
+    <col min="39" max="39" width="14.59765625" customWidth="1"/>
     <col min="40" max="40" width="16" customWidth="1"/>
-    <col min="41" max="41" width="14.875" customWidth="1"/>
-    <col min="42" max="42" width="17.125" customWidth="1"/>
-    <col min="43" max="44" width="11.5" customWidth="1"/>
-    <col min="45" max="45" width="12.625" customWidth="1"/>
-    <col min="46" max="46" width="9" style="3"/>
+    <col min="41" max="41" width="14.86328125" customWidth="1"/>
+    <col min="42" max="42" width="17.1328125" customWidth="1"/>
+    <col min="43" max="44" width="11.46484375" customWidth="1"/>
+    <col min="45" max="45" width="12.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46">
+    <row r="1" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5704,11 +5095,11 @@
       <c r="AS1" t="s">
         <v>9</v>
       </c>
-      <c r="AT1" s="3" t="s">
+      <c r="AT1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:46">
+    <row r="2" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -5739,12 +5130,6 @@
       <c r="J2" t="s">
         <v>128</v>
       </c>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2"/>
-      <c r="N2"/>
-      <c r="O2"/>
-      <c r="P2"/>
       <c r="Q2" t="s">
         <v>129</v>
       </c>
@@ -5832,11 +5217,11 @@
       <c r="AS2" t="s">
         <v>21</v>
       </c>
-      <c r="AT2" s="3">
+      <c r="AT2">
         <v>400001</v>
       </c>
     </row>
-    <row r="3" spans="1:46">
+    <row r="3" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>152</v>
       </c>
@@ -5849,8 +5234,6 @@
       <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E3"/>
-      <c r="F3"/>
       <c r="G3" t="s">
         <v>31</v>
       </c>
@@ -5863,12 +5246,6 @@
       <c r="J3" t="s">
         <v>155</v>
       </c>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
       <c r="Q3" t="s">
         <v>156</v>
       </c>
@@ -5926,9 +5303,6 @@
       <c r="AI3" t="s">
         <v>174</v>
       </c>
-      <c r="AJ3"/>
-      <c r="AK3"/>
-      <c r="AL3"/>
       <c r="AM3" t="s">
         <v>15</v>
       </c>
@@ -5947,11 +5321,11 @@
       <c r="AS3" t="s">
         <v>21</v>
       </c>
-      <c r="AT3" s="3">
+      <c r="AT3">
         <v>1100001</v>
       </c>
     </row>
-    <row r="4" spans="1:46">
+    <row r="4" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -5982,12 +5356,6 @@
       <c r="J4" t="s">
         <v>182</v>
       </c>
-      <c r="K4"/>
-      <c r="L4"/>
-      <c r="M4"/>
-      <c r="N4"/>
-      <c r="O4"/>
-      <c r="P4"/>
       <c r="Q4" t="s">
         <v>183</v>
       </c>
@@ -6000,12 +5368,6 @@
       <c r="T4" t="s">
         <v>180</v>
       </c>
-      <c r="U4"/>
-      <c r="V4"/>
-      <c r="W4"/>
-      <c r="X4"/>
-      <c r="Y4"/>
-      <c r="Z4"/>
       <c r="AA4" t="s">
         <v>185</v>
       </c>
@@ -6060,11 +5422,11 @@
       <c r="AS4" t="s">
         <v>17</v>
       </c>
-      <c r="AT4" s="3">
+      <c r="AT4">
         <v>1000001</v>
       </c>
     </row>
-    <row r="5" spans="1:46">
+    <row r="5" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>195</v>
       </c>
@@ -6197,11 +5559,11 @@
       <c r="AS5" t="s">
         <v>17</v>
       </c>
-      <c r="AT5" s="3">
+      <c r="AT5">
         <v>400001</v>
       </c>
     </row>
-    <row r="6" spans="1:46">
+    <row r="6" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>225</v>
       </c>
@@ -6238,10 +5600,6 @@
       <c r="L6" t="s">
         <v>232</v>
       </c>
-      <c r="M6"/>
-      <c r="N6"/>
-      <c r="O6"/>
-      <c r="P6"/>
       <c r="Q6" t="s">
         <v>233</v>
       </c>
@@ -6260,10 +5618,6 @@
       <c r="V6" t="s">
         <v>238</v>
       </c>
-      <c r="W6"/>
-      <c r="X6"/>
-      <c r="Y6"/>
-      <c r="Z6"/>
       <c r="AA6" t="s">
         <v>239</v>
       </c>
@@ -6318,11 +5672,11 @@
       <c r="AS6" t="s">
         <v>17</v>
       </c>
-      <c r="AT6" s="3">
+      <c r="AT6">
         <v>400001</v>
       </c>
     </row>
-    <row r="7" spans="1:46">
+    <row r="7" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>250</v>
       </c>
@@ -6359,10 +5713,6 @@
       <c r="L7" t="s">
         <v>258</v>
       </c>
-      <c r="M7"/>
-      <c r="N7"/>
-      <c r="O7"/>
-      <c r="P7"/>
       <c r="Q7" t="s">
         <v>259</v>
       </c>
@@ -6387,8 +5737,6 @@
       <c r="X7" t="s">
         <v>266</v>
       </c>
-      <c r="Y7"/>
-      <c r="Z7"/>
       <c r="AA7" t="s">
         <v>267</v>
       </c>
@@ -6446,11 +5794,11 @@
       <c r="AS7" t="s">
         <v>21</v>
       </c>
-      <c r="AT7" s="3">
+      <c r="AT7">
         <v>400001</v>
       </c>
     </row>
-    <row r="8" spans="1:46">
+    <row r="8" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>278</v>
       </c>
@@ -6475,14 +5823,6 @@
       <c r="H8" t="s">
         <v>282</v>
       </c>
-      <c r="I8"/>
-      <c r="J8"/>
-      <c r="K8"/>
-      <c r="L8"/>
-      <c r="M8"/>
-      <c r="N8"/>
-      <c r="O8"/>
-      <c r="P8"/>
       <c r="Q8" t="s">
         <v>283</v>
       </c>
@@ -6567,11 +5907,11 @@
       <c r="AS8" t="s">
         <v>21</v>
       </c>
-      <c r="AT8" s="3">
+      <c r="AT8">
         <v>1000001</v>
       </c>
     </row>
-    <row r="9" spans="1:46">
+    <row r="9" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>303</v>
       </c>
@@ -6584,8 +5924,6 @@
       <c r="D9" t="s">
         <v>49</v>
       </c>
-      <c r="E9"/>
-      <c r="F9"/>
       <c r="G9" t="s">
         <v>304</v>
       </c>
@@ -6628,12 +5966,6 @@
       <c r="T9" t="s">
         <v>317</v>
       </c>
-      <c r="U9"/>
-      <c r="V9"/>
-      <c r="W9"/>
-      <c r="X9"/>
-      <c r="Y9"/>
-      <c r="Z9"/>
       <c r="AA9" t="s">
         <v>137</v>
       </c>
@@ -6661,9 +5993,6 @@
       <c r="AI9" t="s">
         <v>323</v>
       </c>
-      <c r="AJ9"/>
-      <c r="AK9"/>
-      <c r="AL9"/>
       <c r="AM9" t="s">
         <v>15</v>
       </c>
@@ -6682,11 +6011,11 @@
       <c r="AS9" t="s">
         <v>17</v>
       </c>
-      <c r="AT9" s="3">
+      <c r="AT9">
         <v>400001</v>
       </c>
     </row>
-    <row r="10" spans="1:46">
+    <row r="10" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>326</v>
       </c>
@@ -6819,11 +6148,11 @@
       <c r="AS10" t="s">
         <v>21</v>
       </c>
-      <c r="AT10" s="3">
+      <c r="AT10">
         <v>300001</v>
       </c>
     </row>
-    <row r="11" spans="1:46">
+    <row r="11" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>353</v>
       </c>
@@ -6854,12 +6183,6 @@
       <c r="J11" t="s">
         <v>358</v>
       </c>
-      <c r="K11"/>
-      <c r="L11"/>
-      <c r="M11"/>
-      <c r="N11"/>
-      <c r="O11"/>
-      <c r="P11"/>
       <c r="Q11" t="s">
         <v>237</v>
       </c>
@@ -6884,8 +6207,6 @@
       <c r="X11" t="s">
         <v>365</v>
       </c>
-      <c r="Y11"/>
-      <c r="Z11"/>
       <c r="AA11" t="s">
         <v>366</v>
       </c>
@@ -6940,11 +6261,11 @@
       <c r="AS11" t="s">
         <v>17</v>
       </c>
-      <c r="AT11" s="3">
+      <c r="AT11">
         <v>1100001</v>
       </c>
     </row>
-    <row r="12" spans="1:46">
+    <row r="12" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>374</v>
       </c>
@@ -6957,8 +6278,6 @@
       <c r="D12" t="s">
         <v>68</v>
       </c>
-      <c r="E12"/>
-      <c r="F12"/>
       <c r="G12" t="s">
         <v>375</v>
       </c>
@@ -7001,12 +6320,6 @@
       <c r="T12" t="s">
         <v>387</v>
       </c>
-      <c r="U12"/>
-      <c r="V12"/>
-      <c r="W12"/>
-      <c r="X12"/>
-      <c r="Y12"/>
-      <c r="Z12"/>
       <c r="AA12" t="s">
         <v>388</v>
       </c>
@@ -7034,9 +6347,6 @@
       <c r="AI12" t="s">
         <v>394</v>
       </c>
-      <c r="AJ12"/>
-      <c r="AK12"/>
-      <c r="AL12"/>
       <c r="AM12" t="s">
         <v>15</v>
       </c>
@@ -7058,11 +6368,11 @@
       <c r="AS12" t="s">
         <v>17</v>
       </c>
-      <c r="AT12" s="3">
+      <c r="AT12">
         <v>1100001</v>
       </c>
     </row>
-    <row r="13" spans="1:46">
+    <row r="13" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>395</v>
       </c>
@@ -7099,10 +6409,6 @@
       <c r="L13" t="s">
         <v>402</v>
       </c>
-      <c r="M13"/>
-      <c r="N13"/>
-      <c r="O13"/>
-      <c r="P13"/>
       <c r="Q13" t="s">
         <v>403</v>
       </c>
@@ -7127,8 +6433,6 @@
       <c r="X13" t="s">
         <v>410</v>
       </c>
-      <c r="Y13"/>
-      <c r="Z13"/>
       <c r="AA13" t="s">
         <v>411</v>
       </c>
@@ -7183,11 +6487,11 @@
       <c r="AS13" t="s">
         <v>21</v>
       </c>
-      <c r="AT13" s="3">
+      <c r="AT13">
         <v>1000001</v>
       </c>
     </row>
-    <row r="14" spans="1:46">
+    <row r="14" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>420</v>
       </c>
@@ -7212,14 +6516,6 @@
       <c r="H14" t="s">
         <v>424</v>
       </c>
-      <c r="I14"/>
-      <c r="J14"/>
-      <c r="K14"/>
-      <c r="L14"/>
-      <c r="M14"/>
-      <c r="N14"/>
-      <c r="O14"/>
-      <c r="P14"/>
       <c r="Q14" t="s">
         <v>251</v>
       </c>
@@ -7244,8 +6540,6 @@
       <c r="X14" t="s">
         <v>430</v>
       </c>
-      <c r="Y14"/>
-      <c r="Z14"/>
       <c r="AA14" t="s">
         <v>431</v>
       </c>
@@ -7300,11 +6594,11 @@
       <c r="AS14" t="s">
         <v>17</v>
       </c>
-      <c r="AT14" s="3">
+      <c r="AT14">
         <v>1100001</v>
       </c>
     </row>
-    <row r="15" spans="1:46">
+    <row r="15" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>439</v>
       </c>
@@ -7329,10 +6623,6 @@
       <c r="H15" t="s">
         <v>442</v>
       </c>
-      <c r="I15"/>
-      <c r="J15"/>
-      <c r="K15"/>
-      <c r="L15"/>
       <c r="Q15" t="s">
         <v>443</v>
       </c>
@@ -7417,40 +6707,37 @@
       <c r="AS15" t="s">
         <v>17</v>
       </c>
-      <c r="AT15" s="3">
+      <c r="AT15">
         <v>400001</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:AU15" etc:filterBottomFollowUsedRange="0">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:AU15" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="11.5" customWidth="1"/>
-    <col min="7" max="7" width="8.375" customWidth="1"/>
-    <col min="8" max="9" width="10.375" customWidth="1"/>
+    <col min="1" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="11.46484375" customWidth="1"/>
+    <col min="7" max="7" width="8.3984375" customWidth="1"/>
+    <col min="8" max="9" width="10.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7479,7 +6766,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -7496,8 +6783,8 @@
       <c r="E2" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="F2" t="s">
-        <v>470</v>
+      <c r="F2" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="G2">
         <f>10000*I2</f>
@@ -7510,7 +6797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>178</v>
       </c>
@@ -7521,14 +6808,14 @@
         <v>44687</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D3:D9" si="0">C3+365</f>
+        <f t="shared" ref="D3:D7" si="0">C3+365</f>
         <v>45052</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="F3" t="s">
         <v>470</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G10" si="1">10000*I3</f>
@@ -7541,7 +6828,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>225</v>
       </c>
@@ -7556,10 +6843,10 @@
         <v>45052</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="F4" t="s">
-        <v>470</v>
+        <v>471</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="G4">
         <f t="shared" si="1"/>
@@ -7572,7 +6859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>250</v>
       </c>
@@ -7587,10 +6874,10 @@
         <v>45052</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="F5" t="s">
-        <v>470</v>
+        <v>472</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
@@ -7603,7 +6890,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>278</v>
       </c>
@@ -7618,10 +6905,10 @@
         <v>45418</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="F6" t="s">
-        <v>470</v>
+        <v>473</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
@@ -7634,7 +6921,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>326</v>
       </c>
@@ -7649,10 +6936,10 @@
         <v>45417</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="F7" t="s">
-        <v>470</v>
+        <v>474</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>845</v>
       </c>
       <c r="G7">
         <f t="shared" si="1"/>
@@ -7665,7 +6952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>353</v>
       </c>
@@ -7677,10 +6964,10 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="F8" t="s">
         <v>476</v>
-      </c>
-      <c r="F8" t="s">
-        <v>477</v>
       </c>
       <c r="G8">
         <f t="shared" si="1"/>
@@ -7693,7 +6980,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>395</v>
       </c>
@@ -7705,10 +6992,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="F9" t="s">
         <v>478</v>
-      </c>
-      <c r="F9" t="s">
-        <v>479</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
@@ -7721,7 +7008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>420</v>
       </c>
@@ -7733,10 +7020,10 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="F10" t="s">
         <v>480</v>
-      </c>
-      <c r="F10" t="s">
-        <v>481</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
@@ -7750,33 +7037,32 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L121"/>
   <sheetViews>
     <sheetView topLeftCell="A34" workbookViewId="0">
       <selection activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="3" width="4.375" customWidth="1"/>
-    <col min="4" max="5" width="11.5" customWidth="1"/>
-    <col min="6" max="6" width="12.625" customWidth="1"/>
-    <col min="7" max="7" width="10.375" customWidth="1"/>
-    <col min="8" max="9" width="11.5" customWidth="1"/>
-    <col min="10" max="10" width="9.375" customWidth="1"/>
-    <col min="11" max="12" width="8.375" customWidth="1"/>
+    <col min="1" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="3" width="4.3984375" customWidth="1"/>
+    <col min="4" max="5" width="11.46484375" customWidth="1"/>
+    <col min="6" max="6" width="12.59765625" customWidth="1"/>
+    <col min="7" max="7" width="10.3984375" customWidth="1"/>
+    <col min="8" max="9" width="11.46484375" customWidth="1"/>
+    <col min="10" max="10" width="9.3984375" customWidth="1"/>
+    <col min="11" max="12" width="8.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7784,37 +7070,37 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>481</v>
+      </c>
+      <c r="D1" t="s">
         <v>482</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>483</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>484</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>485</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>486</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>487</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>488</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>489</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>490</v>
       </c>
-      <c r="L1" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>124</v>
       </c>
@@ -7855,7 +7141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>124</v>
       </c>
@@ -7897,7 +7183,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>124</v>
       </c>
@@ -7939,7 +7225,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>124</v>
       </c>
@@ -7981,7 +7267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>124</v>
       </c>
@@ -8023,7 +7309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -8065,7 +7351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>124</v>
       </c>
@@ -8107,7 +7393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>124</v>
       </c>
@@ -8149,7 +7435,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>124</v>
       </c>
@@ -8191,7 +7477,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>124</v>
       </c>
@@ -8233,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>124</v>
       </c>
@@ -8275,7 +7561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>124</v>
       </c>
@@ -8303,7 +7589,7 @@
         <v>45027</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -8317,7 +7603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -8344,7 +7630,7 @@
         <v>44687</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -8358,7 +7644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>178</v>
       </c>
@@ -8386,7 +7672,7 @@
         <v>44718</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -8400,7 +7686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>178</v>
       </c>
@@ -8428,7 +7714,7 @@
         <v>44749</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -8442,7 +7728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>178</v>
       </c>
@@ -8470,7 +7756,7 @@
         <v>44780</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -8484,7 +7770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>178</v>
       </c>
@@ -8512,7 +7798,7 @@
         <v>44821</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J18">
         <v>10</v>
@@ -8526,7 +7812,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>178</v>
       </c>
@@ -8554,7 +7840,7 @@
         <v>44842</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -8568,7 +7854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>178</v>
       </c>
@@ -8596,7 +7882,7 @@
         <v>44873</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -8610,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>178</v>
       </c>
@@ -8638,7 +7924,7 @@
         <v>44907</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J21">
         <v>3</v>
@@ -8652,7 +7938,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>178</v>
       </c>
@@ -8680,7 +7966,7 @@
         <v>44935</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -8694,7 +7980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>178</v>
       </c>
@@ -8722,7 +8008,7 @@
         <v>44966</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -8736,7 +8022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>178</v>
       </c>
@@ -8764,7 +8050,7 @@
         <v>44997</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -8778,7 +8064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>178</v>
       </c>
@@ -8806,7 +8092,7 @@
         <v>45028</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -8820,7 +8106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>225</v>
       </c>
@@ -8847,7 +8133,7 @@
         <v>44687</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J26">
         <v>0</v>
@@ -8861,7 +8147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>225</v>
       </c>
@@ -8889,7 +8175,7 @@
         <v>44718</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J27">
         <v>0</v>
@@ -8903,7 +8189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>225</v>
       </c>
@@ -8931,7 +8217,7 @@
         <v>44749</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J28">
         <v>0</v>
@@ -8945,7 +8231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>225</v>
       </c>
@@ -8973,7 +8259,7 @@
         <v>44780</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J29">
         <v>0</v>
@@ -8987,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>225</v>
       </c>
@@ -9015,7 +8301,7 @@
         <v>44821</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J30">
         <v>10</v>
@@ -9029,7 +8315,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>225</v>
       </c>
@@ -9057,7 +8343,7 @@
         <v>44842</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J31">
         <v>0</v>
@@ -9071,7 +8357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>225</v>
       </c>
@@ -9099,7 +8385,7 @@
         <v>44945</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J32">
         <v>72</v>
@@ -9113,7 +8399,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>225</v>
       </c>
@@ -9141,7 +8427,7 @@
         <v>44950</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J33">
         <v>46</v>
@@ -9155,7 +8441,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>225</v>
       </c>
@@ -9183,7 +8469,7 @@
         <v>44953</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J34">
         <v>18</v>
@@ -9197,7 +8483,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>225</v>
       </c>
@@ -9225,7 +8511,7 @@
         <v>44966</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -9239,7 +8525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>225</v>
       </c>
@@ -9267,7 +8553,7 @@
         <v>44997</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J36">
         <v>0</v>
@@ -9281,7 +8567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>225</v>
       </c>
@@ -9309,7 +8595,7 @@
         <v>45028</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -9323,7 +8609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>250</v>
       </c>
@@ -9350,7 +8636,7 @@
         <v>44687</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J38">
         <v>0</v>
@@ -9364,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>250</v>
       </c>
@@ -9392,7 +8678,7 @@
         <v>44718</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -9406,7 +8692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>250</v>
       </c>
@@ -9434,7 +8720,7 @@
         <v>44749</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J40">
         <v>0</v>
@@ -9448,7 +8734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>250</v>
       </c>
@@ -9476,7 +8762,7 @@
         <v>44780</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J41">
         <v>0</v>
@@ -9490,7 +8776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>250</v>
       </c>
@@ -9518,7 +8804,7 @@
         <v>44811</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J42">
         <v>0</v>
@@ -9532,7 +8818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>250</v>
       </c>
@@ -9560,7 +8846,7 @@
         <v>44842</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -9574,7 +8860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>250</v>
       </c>
@@ -9602,7 +8888,7 @@
         <v>44873</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J44">
         <v>0</v>
@@ -9616,7 +8902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>250</v>
       </c>
@@ -9644,7 +8930,7 @@
         <v>44904</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J45">
         <v>0</v>
@@ -9658,7 +8944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>250</v>
       </c>
@@ -9686,7 +8972,7 @@
         <v>44935</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -9700,7 +8986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>250</v>
       </c>
@@ -9728,7 +9014,7 @@
         <v>44966</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -9742,7 +9028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>250</v>
       </c>
@@ -9770,7 +9056,7 @@
         <v>44997</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J48">
         <v>0</v>
@@ -9784,7 +9070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>250</v>
       </c>
@@ -9812,7 +9098,7 @@
         <v>45028</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J49">
         <v>0</v>
@@ -9826,7 +9112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>278</v>
       </c>
@@ -9853,7 +9139,7 @@
         <v>45053</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J50">
         <v>0</v>
@@ -9867,7 +9153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>278</v>
       </c>
@@ -9895,7 +9181,7 @@
         <v>45084</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J51">
         <v>0</v>
@@ -9909,7 +9195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>278</v>
       </c>
@@ -9937,7 +9223,7 @@
         <v>45115</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -9951,7 +9237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>278</v>
       </c>
@@ -9979,7 +9265,7 @@
         <v>45146</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J53">
         <v>0</v>
@@ -9993,7 +9279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>278</v>
       </c>
@@ -10021,7 +9307,7 @@
         <v>45177</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -10035,7 +9321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>278</v>
       </c>
@@ -10063,7 +9349,7 @@
         <v>45208</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -10077,7 +9363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>278</v>
       </c>
@@ -10105,7 +9391,7 @@
         <v>45239</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J56">
         <v>0</v>
@@ -10119,7 +9405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>278</v>
       </c>
@@ -10147,7 +9433,7 @@
         <v>45270</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J57">
         <v>0</v>
@@ -10161,7 +9447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>278</v>
       </c>
@@ -10189,7 +9475,7 @@
         <v>45301</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J58">
         <v>0</v>
@@ -10203,7 +9489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>278</v>
       </c>
@@ -10231,7 +9517,7 @@
         <v>45332</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J59">
         <v>0</v>
@@ -10245,7 +9531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>278</v>
       </c>
@@ -10273,7 +9559,7 @@
         <v>45363</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -10287,7 +9573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>278</v>
       </c>
@@ -10315,7 +9601,7 @@
         <v>45394</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -10329,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>326</v>
       </c>
@@ -10356,7 +9642,7 @@
         <v>45052</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -10370,7 +9656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>326</v>
       </c>
@@ -10398,7 +9684,7 @@
         <v>45083</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J63">
         <v>0</v>
@@ -10412,7 +9698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>326</v>
       </c>
@@ -10440,7 +9726,7 @@
         <v>45114</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J64">
         <v>0</v>
@@ -10454,7 +9740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>326</v>
       </c>
@@ -10482,7 +9768,7 @@
         <v>45145</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J65">
         <v>0</v>
@@ -10496,7 +9782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>326</v>
       </c>
@@ -10524,7 +9810,7 @@
         <v>45176</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J66">
         <v>0</v>
@@ -10538,7 +9824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>326</v>
       </c>
@@ -10566,21 +9852,21 @@
         <v>45207</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J67">
         <v>0</v>
       </c>
       <c r="K67">
-        <f t="shared" ref="K67:K98" si="13">INT((J67+29)/30)*10000</f>
+        <f t="shared" ref="K67:K97" si="13">INT((J67+29)/30)*10000</f>
         <v>0</v>
       </c>
       <c r="L67">
-        <f t="shared" ref="L67:L98" si="14">K67</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:12">
+        <f t="shared" ref="L67:L97" si="14">K67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>326</v>
       </c>
@@ -10608,7 +9894,7 @@
         <v>45238</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="J68">
         <v>0</v>
@@ -10622,7 +9908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>326</v>
       </c>
@@ -10650,7 +9936,7 @@
         <v>45269</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J69">
         <v>0</v>
@@ -10664,7 +9950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>326</v>
       </c>
@@ -10692,7 +9978,7 @@
         <v>45300</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -10706,7 +9992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>326</v>
       </c>
@@ -10734,7 +10020,7 @@
         <v>45331</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -10748,7 +10034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>326</v>
       </c>
@@ -10776,7 +10062,7 @@
         <v>45362</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J72">
         <v>0</v>
@@ -10790,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>326</v>
       </c>
@@ -10818,7 +10104,7 @@
         <v>45393</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -10832,7 +10118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>353</v>
       </c>
@@ -10859,7 +10145,7 @@
         <v>45052</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -10873,7 +10159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>353</v>
       </c>
@@ -10901,7 +10187,7 @@
         <v>45083</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J75">
         <v>0</v>
@@ -10915,7 +10201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>353</v>
       </c>
@@ -10943,7 +10229,7 @@
         <v>45114</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J76">
         <v>0</v>
@@ -10957,7 +10243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>353</v>
       </c>
@@ -10985,7 +10271,7 @@
         <v>45145</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J77">
         <v>0</v>
@@ -10999,7 +10285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>353</v>
       </c>
@@ -11027,7 +10313,7 @@
         <v>45176</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J78">
         <v>0</v>
@@ -11041,7 +10327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>353</v>
       </c>
@@ -11069,7 +10355,7 @@
         <v>45207</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -11083,7 +10369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>353</v>
       </c>
@@ -11111,7 +10397,7 @@
         <v>45238</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J80">
         <v>0</v>
@@ -11125,7 +10411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>353</v>
       </c>
@@ -11153,7 +10439,7 @@
         <v>45269</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J81">
         <v>0</v>
@@ -11167,7 +10453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>353</v>
       </c>
@@ -11195,7 +10481,7 @@
         <v>45300</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J82">
         <v>0</v>
@@ -11209,7 +10495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>353</v>
       </c>
@@ -11237,7 +10523,7 @@
         <v>45331</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J83">
         <v>0</v>
@@ -11251,7 +10537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>353</v>
       </c>
@@ -11279,7 +10565,7 @@
         <v>45362</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -11293,7 +10579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>353</v>
       </c>
@@ -11327,7 +10613,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>395</v>
       </c>
@@ -11354,7 +10640,7 @@
         <v>45420</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J86">
         <v>0</v>
@@ -11368,7 +10654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>395</v>
       </c>
@@ -11396,7 +10682,7 @@
         <v>45451</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -11410,7 +10696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>395</v>
       </c>
@@ -11438,7 +10724,7 @@
         <v>45482</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J88">
         <v>0</v>
@@ -11452,7 +10738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>395</v>
       </c>
@@ -11480,7 +10766,7 @@
         <v>45513</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J89">
         <v>0</v>
@@ -11494,7 +10780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>395</v>
       </c>
@@ -11522,7 +10808,7 @@
         <v>45544</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J90">
         <v>0</v>
@@ -11536,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>395</v>
       </c>
@@ -11564,7 +10850,7 @@
         <v>45596</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J91">
         <v>21</v>
@@ -11578,7 +10864,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>395</v>
       </c>
@@ -11612,7 +10898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>395</v>
       </c>
@@ -11646,7 +10932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>395</v>
       </c>
@@ -11680,7 +10966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>395</v>
       </c>
@@ -11714,7 +11000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>395</v>
       </c>
@@ -11748,7 +11034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>395</v>
       </c>
@@ -11782,7 +11068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>420</v>
       </c>
@@ -11809,7 +11095,7 @@
         <v>44842</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J98">
         <v>0</v>
@@ -11823,7 +11109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>420</v>
       </c>
@@ -11851,7 +11137,7 @@
         <v>44907</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J99">
         <v>0</v>
@@ -11865,7 +11151,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>420</v>
       </c>
@@ -11893,21 +11179,21 @@
         <v>47353</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100">
-        <f t="shared" ref="K99:K121" si="17">INT((J100+29)/30)*10000</f>
+        <f t="shared" ref="K100:K121" si="17">INT((J100+29)/30)*10000</f>
         <v>0</v>
       </c>
       <c r="L100">
-        <f t="shared" ref="L99:L121" si="18">K100</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101" spans="1:12">
+        <f t="shared" ref="L100:L121" si="18">K100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>420</v>
       </c>
@@ -11924,7 +11210,7 @@
         <v>10000</v>
       </c>
       <c r="F101" s="1">
-        <f t="shared" ref="F99:F121" si="19">F100+31*(ROW(F101)-ROW(F100))</f>
+        <f t="shared" ref="F101:F121" si="19">F100+31*(ROW(F101)-ROW(F100))</f>
         <v>47384</v>
       </c>
       <c r="G101">
@@ -11935,7 +11221,7 @@
         <v>47384</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J101">
         <v>0</v>
@@ -11949,7 +11235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>420</v>
       </c>
@@ -11977,7 +11263,7 @@
         <v>47415</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J102">
         <v>0</v>
@@ -11991,7 +11277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>420</v>
       </c>
@@ -12019,7 +11305,7 @@
         <v>47446</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="J103">
         <v>0</v>
@@ -12033,7 +11319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:12">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>420</v>
       </c>
@@ -12067,7 +11353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:12">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>420</v>
       </c>
@@ -12101,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:12">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>420</v>
       </c>
@@ -12135,7 +11421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:12">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>420</v>
       </c>
@@ -12169,7 +11455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:12">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>420</v>
       </c>
@@ -12203,7 +11489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:12">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>420</v>
       </c>
@@ -12237,7 +11523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>420</v>
       </c>
@@ -12271,7 +11557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:12">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>420</v>
       </c>
@@ -12305,7 +11591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:12">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>420</v>
       </c>
@@ -12339,7 +11625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:12">
+    <row r="113" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>420</v>
       </c>
@@ -12373,7 +11659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:12">
+    <row r="114" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>420</v>
       </c>
@@ -12407,7 +11693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:12">
+    <row r="115" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>420</v>
       </c>
@@ -12441,7 +11727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:12">
+    <row r="116" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>420</v>
       </c>
@@ -12475,7 +11761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:12">
+    <row r="117" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>420</v>
       </c>
@@ -12509,7 +11795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:12">
+    <row r="118" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>420</v>
       </c>
@@ -12543,7 +11829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:12">
+    <row r="119" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>420</v>
       </c>
@@ -12577,7 +11863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:12">
+    <row r="120" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>420</v>
       </c>
@@ -12611,7 +11897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:12">
+    <row r="121" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>420</v>
       </c>
@@ -12646,49 +11932,48 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="11.5" customWidth="1"/>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="12.625" customWidth="1"/>
-    <col min="6" max="6" width="9.375" customWidth="1"/>
-    <col min="7" max="7" width="11.5" customWidth="1"/>
-    <col min="8" max="8" width="14.875" customWidth="1"/>
+    <col min="1" max="2" width="11.46484375" customWidth="1"/>
+    <col min="3" max="3" width="10.3984375" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" customWidth="1"/>
+    <col min="5" max="5" width="12.59765625" customWidth="1"/>
+    <col min="6" max="6" width="9.3984375" customWidth="1"/>
+    <col min="7" max="7" width="11.46484375" customWidth="1"/>
+    <col min="8" max="8" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C1" t="s">
         <v>493</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>494</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>495</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>496</v>
-      </c>
-      <c r="F1" t="s">
-        <v>497</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -12697,24 +11982,24 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2" t="s">
         <v>138</v>
       </c>
       <c r="C2" t="s">
+        <v>498</v>
+      </c>
+      <c r="D2" t="s">
         <v>499</v>
-      </c>
-      <c r="D2" t="s">
-        <v>500</v>
       </c>
       <c r="E2" t="s">
         <v>205</v>
       </c>
       <c r="F2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G2" s="2">
         <v>44661</v>
@@ -12723,24 +12008,24 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B3" t="s">
         <v>167</v>
       </c>
       <c r="C3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D3" t="s">
         <v>503</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>504</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>505</v>
-      </c>
-      <c r="F3" t="s">
-        <v>506</v>
       </c>
       <c r="G3" s="2">
         <v>44661</v>
@@ -12749,24 +12034,24 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B4" t="s">
         <v>138</v>
       </c>
       <c r="C4" t="s">
+        <v>498</v>
+      </c>
+      <c r="D4" t="s">
         <v>499</v>
-      </c>
-      <c r="D4" t="s">
-        <v>500</v>
       </c>
       <c r="E4" t="s">
         <v>205</v>
       </c>
       <c r="F4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G4" s="2">
         <v>44661</v>
@@ -12775,24 +12060,24 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>507</v>
+      </c>
+      <c r="B5" t="s">
         <v>508</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>509</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>510</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>511</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>512</v>
-      </c>
-      <c r="F5" t="s">
-        <v>513</v>
       </c>
       <c r="G5" s="2">
         <v>44661</v>
@@ -12801,24 +12086,24 @@
         <v>44661</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B6" t="s">
         <v>514</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>515</v>
-      </c>
-      <c r="C6" t="s">
-        <v>516</v>
       </c>
       <c r="D6" t="s">
         <v>246</v>
       </c>
       <c r="E6" t="s">
+        <v>516</v>
+      </c>
+      <c r="F6" t="s">
         <v>517</v>
-      </c>
-      <c r="F6" t="s">
-        <v>518</v>
       </c>
       <c r="G6" s="2">
         <v>44661</v>
@@ -12828,28 +12113,27 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="12.625" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="14.875" customWidth="1"/>
+    <col min="1" max="2" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12866,15 +12150,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>518</v>
+      </c>
+      <c r="B2" t="s">
         <v>519</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>520</v>
-      </c>
-      <c r="C2" t="s">
-        <v>521</v>
       </c>
       <c r="D2" s="2">
         <v>44691</v>
@@ -12883,15 +12167,15 @@
         <v>44691</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>521</v>
+      </c>
+      <c r="B3" t="s">
         <v>522</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>523</v>
-      </c>
-      <c r="C3" t="s">
-        <v>524</v>
       </c>
       <c r="D3" s="2">
         <v>44691</v>
@@ -12900,15 +12184,15 @@
         <v>44691</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>524</v>
+      </c>
+      <c r="B4" t="s">
         <v>525</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>526</v>
-      </c>
-      <c r="C4" t="s">
-        <v>527</v>
       </c>
       <c r="D4" s="2">
         <v>44691</v>
@@ -12917,15 +12201,15 @@
         <v>44691</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>527</v>
+      </c>
+      <c r="B5" t="s">
         <v>528</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>529</v>
-      </c>
-      <c r="C5" t="s">
-        <v>530</v>
       </c>
       <c r="D5" s="2">
         <v>44691</v>
@@ -12934,15 +12218,15 @@
         <v>44691</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>530</v>
+      </c>
+      <c r="B6" t="s">
         <v>531</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>532</v>
-      </c>
-      <c r="C6" t="s">
-        <v>533</v>
       </c>
       <c r="D6" s="2">
         <v>44691</v>
@@ -12951,12 +12235,12 @@
         <v>44691</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>533</v>
+      </c>
+      <c r="B7" t="s">
         <v>534</v>
-      </c>
-      <c r="B7" t="s">
-        <v>535</v>
       </c>
       <c r="C7" t="s">
         <v>262</v>
@@ -12968,15 +12252,15 @@
         <v>44691</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>535</v>
+      </c>
+      <c r="B8" t="s">
         <v>536</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>537</v>
-      </c>
-      <c r="C8" t="s">
-        <v>538</v>
       </c>
       <c r="D8" s="2">
         <v>44691</v>
@@ -12986,66 +12270,65 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="7" width="12.625" customWidth="1"/>
-    <col min="8" max="8" width="9.375"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="4" width="10.3984375" customWidth="1"/>
+    <col min="5" max="7" width="12.59765625" customWidth="1"/>
+    <col min="8" max="8" width="9.3984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>539</v>
+      </c>
+      <c r="D1" t="s">
         <v>540</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>541</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>542</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>543</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>544</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>545</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>546</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
+        <v>546</v>
+      </c>
+      <c r="D2" t="s">
         <v>547</v>
-      </c>
-      <c r="D2" t="s">
-        <v>548</v>
       </c>
       <c r="E2" t="str">
         <f>VLOOKUP(B2,autofin_sectrial!$B$1:$F$15,4,FALSE)</f>
@@ -13064,45 +12347,45 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B3" t="s">
         <v>23</v>
       </c>
       <c r="C3" t="s">
+        <v>549</v>
+      </c>
+      <c r="D3" t="s">
         <v>550</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>551</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>552</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>553</v>
-      </c>
-      <c r="G3" t="s">
-        <v>554</v>
       </c>
       <c r="H3" s="1">
         <f>VLOOKUP(B3,autofin_pretrial!$B$1:$C$21,2,FALSE)</f>
         <v>44682</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
       <c r="C4" t="s">
+        <v>555</v>
+      </c>
+      <c r="D4" t="s">
         <v>556</v>
-      </c>
-      <c r="D4" t="s">
-        <v>557</v>
       </c>
       <c r="E4" t="str">
         <f>VLOOKUP(B4,autofin_sectrial!$B$1:$F$15,4,FALSE)</f>
@@ -13121,9 +12404,9 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B5" t="s">
         <v>37</v>
@@ -13132,7 +12415,7 @@
         <v>372</v>
       </c>
       <c r="D5" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="E5" t="str">
         <f>VLOOKUP(B5,autofin_sectrial!$B$1:$F$15,4,FALSE)</f>
@@ -13151,48 +12434,48 @@
         <v>44684</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B6" t="s">
         <v>40</v>
       </c>
       <c r="C6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="D6" t="s">
         <v>142</v>
       </c>
       <c r="E6" t="s">
+        <v>561</v>
+      </c>
+      <c r="F6" t="s">
         <v>562</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>563</v>
-      </c>
-      <c r="G6" t="s">
-        <v>564</v>
       </c>
       <c r="H6" s="1">
         <f>VLOOKUP(B6,autofin_pretrial!$B$1:$C$21,2,FALSE)</f>
         <v>45049</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B7" t="s">
         <v>44</v>
       </c>
       <c r="C7" t="s">
+        <v>565</v>
+      </c>
+      <c r="D7" t="s">
         <v>566</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>567</v>
-      </c>
-      <c r="E7" t="s">
-        <v>568</v>
       </c>
       <c r="F7" t="str">
         <f>VLOOKUP(B7,autofin_sectrial!$B$1:$AJ$15,26,FALSE)</f>
@@ -13207,66 +12490,63 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B8" t="s">
         <v>48</v>
       </c>
       <c r="C8" t="s">
+        <v>569</v>
+      </c>
+      <c r="D8" t="s">
         <v>570</v>
       </c>
-      <c r="D8" t="s">
-        <v>571</v>
-      </c>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="G8"/>
       <c r="H8" s="1">
         <f>VLOOKUP(B8,autofin_pretrial!$B$1:$C$21,2,FALSE)</f>
         <v>45050</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B9" t="s">
         <v>52</v>
       </c>
       <c r="C9" t="s">
+        <v>572</v>
+      </c>
+      <c r="D9" t="s">
         <v>573</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>567</v>
+      </c>
+      <c r="F9" t="s">
         <v>574</v>
       </c>
-      <c r="E9" t="s">
-        <v>568</v>
-      </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>575</v>
-      </c>
-      <c r="G9" t="s">
-        <v>576</v>
       </c>
       <c r="H9" s="1">
         <f>VLOOKUP(B9,autofin_pretrial!$B$1:$C$21,2,FALSE)</f>
         <v>45050</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B10" t="s">
         <v>57</v>
       </c>
       <c r="C10" t="s">
+        <v>577</v>
+      </c>
+      <c r="D10" t="s">
         <v>578</v>
-      </c>
-      <c r="D10" t="s">
-        <v>579</v>
       </c>
       <c r="E10" t="str">
         <f>VLOOKUP(B10,autofin_sectrial!$B$1:$F$15,4,FALSE)</f>
@@ -13285,9 +12565,9 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B11" t="s">
         <v>61</v>
@@ -13296,100 +12576,91 @@
         <v>144</v>
       </c>
       <c r="D11" t="s">
+        <v>580</v>
+      </c>
+      <c r="E11" t="s">
         <v>581</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>582</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>583</v>
-      </c>
-      <c r="G11" t="s">
-        <v>584</v>
       </c>
       <c r="H11" s="1">
         <f>VLOOKUP(B11,autofin_pretrial!$B$1:$C$21,2,FALSE)</f>
         <v>45050</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B12" t="s">
         <v>64</v>
       </c>
       <c r="C12" t="s">
+        <v>585</v>
+      </c>
+      <c r="D12" t="s">
         <v>586</v>
       </c>
-      <c r="D12" t="s">
-        <v>587</v>
-      </c>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
       <c r="H12" s="1">
         <f>VLOOKUP(B12,autofin_pretrial!$B$1:$C$21,2,FALSE)</f>
         <v>45050</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B13" t="s">
         <v>67</v>
       </c>
       <c r="C13" t="s">
+        <v>588</v>
+      </c>
+      <c r="D13" t="s">
         <v>589</v>
       </c>
-      <c r="D13" t="s">
-        <v>590</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13"/>
-      <c r="G13"/>
       <c r="H13" s="1">
         <f>VLOOKUP(B13,autofin_pretrial!$B$1:$C$21,2,FALSE)</f>
         <v>45416</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B14" t="s">
         <v>70</v>
       </c>
       <c r="C14" t="s">
+        <v>591</v>
+      </c>
+      <c r="D14" t="s">
         <v>592</v>
       </c>
-      <c r="D14" t="s">
-        <v>593</v>
-      </c>
-      <c r="E14"/>
-      <c r="F14"/>
-      <c r="G14"/>
       <c r="H14" s="1">
         <f>VLOOKUP(B14,autofin_pretrial!$B$1:$C$21,2,FALSE)</f>
         <v>45417</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B15" t="s">
         <v>74</v>
       </c>
       <c r="C15" t="s">
+        <v>594</v>
+      </c>
+      <c r="D15" t="s">
         <v>595</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>596</v>
-      </c>
-      <c r="E15" t="s">
-        <v>597</v>
       </c>
       <c r="F15" t="str">
         <f>VLOOKUP(B15,autofin_sectrial!$B$1:$AJ$15,26,FALSE)</f>
@@ -13404,18 +12675,18 @@
         <v>45417</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B16" t="s">
         <v>78</v>
       </c>
       <c r="C16" t="s">
+        <v>598</v>
+      </c>
+      <c r="D16" t="s">
         <v>599</v>
-      </c>
-      <c r="D16" t="s">
-        <v>600</v>
       </c>
       <c r="E16" t="str">
         <f>VLOOKUP(B16,autofin_sectrial!$B$1:$F$15,4,FALSE)</f>
@@ -13434,45 +12705,45 @@
         <v>45417</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
       </c>
       <c r="C17" t="s">
+        <v>601</v>
+      </c>
+      <c r="D17" t="s">
         <v>602</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
+        <v>596</v>
+      </c>
+      <c r="F17" t="s">
         <v>603</v>
       </c>
-      <c r="E17" t="s">
-        <v>597</v>
-      </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>604</v>
-      </c>
-      <c r="G17" t="s">
-        <v>605</v>
       </c>
       <c r="H17" s="1">
         <f>VLOOKUP(B17,autofin_pretrial!$B$1:$C$21,2,FALSE)</f>
         <v>45417</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B18" t="s">
         <v>85</v>
       </c>
       <c r="C18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D18" t="s">
         <v>607</v>
-      </c>
-      <c r="D18" t="s">
-        <v>608</v>
       </c>
       <c r="E18" t="str">
         <f>VLOOKUP(B18,autofin_sectrial!$B$1:$F$15,4,FALSE)</f>
@@ -13492,99 +12763,98 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="4" width="9.375" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="4" width="9.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D1" t="s">
         <v>609</v>
       </c>
-      <c r="D1" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D2" s="1">
         <v>44668</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D3" s="1">
         <v>44663</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D4" s="1">
         <v>44604</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D5" s="1">
         <v>44592</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -13596,107 +12866,107 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D7" s="1">
         <v>44677</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D8" s="1">
         <v>44632</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D9" s="1">
         <v>44628</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D10" s="1">
         <v>44629</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D11" s="1">
         <v>44639</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D12" s="1">
         <v>44654</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D13" s="1">
         <v>44647</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -13708,93 +12978,93 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D15" s="1">
         <v>44675</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D16" s="1">
         <v>44950</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D17" s="1">
         <v>44971</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D18" s="1">
         <v>44978</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D19" s="1">
         <v>44979</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D20" s="1">
         <v>44994</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
@@ -13806,149 +13076,149 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D22" s="1">
         <v>45018</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D23" s="1">
         <v>45045</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D24" s="1">
         <v>45031</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D25" s="1">
         <v>44970</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D26" s="1">
         <v>45042</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D27" s="1">
         <v>44975</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D28" s="1">
         <v>45001</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D29" s="1">
         <v>44962</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D30" s="1">
         <v>45032</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D31" s="1">
         <v>44968</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
@@ -13960,107 +13230,107 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D33" s="1">
         <v>45041</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B34" t="s">
         <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D34" s="1">
         <v>44966</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D35" s="1">
         <v>45394</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D36" s="1">
         <v>45406</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D37" s="1">
         <v>45405</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B38" t="s">
         <v>70</v>
       </c>
       <c r="C38" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D38" s="1">
         <v>45409</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B39" t="s">
         <v>70</v>
       </c>
       <c r="C39" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="D39" s="1">
         <v>45358</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B40" t="s">
         <v>70</v>
@@ -14072,65 +13342,65 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B41" t="s">
         <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D41" s="1">
         <v>45408</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B42" t="s">
         <v>74</v>
       </c>
       <c r="C42" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D42" s="1">
         <v>45402</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B43" t="s">
         <v>74</v>
       </c>
       <c r="C43" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D43" s="1">
         <v>45383</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B44" t="s">
         <v>78</v>
       </c>
       <c r="C44" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D44" s="1">
         <v>45336</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B45" t="s">
         <v>78</v>
@@ -14142,117 +13412,116 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B46" t="s">
         <v>82</v>
       </c>
       <c r="C46" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D46" s="1">
         <v>45374</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B47" t="s">
         <v>85</v>
       </c>
       <c r="C47" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D47" s="1">
         <v>45385</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.75" customWidth="1"/>
-    <col min="2" max="2" width="12.625" customWidth="1"/>
-    <col min="3" max="4" width="10.375" customWidth="1"/>
-    <col min="5" max="5" width="10.375"/>
+    <col min="1" max="1" width="13.73046875" customWidth="1"/>
+    <col min="2" max="2" width="12.59765625" customWidth="1"/>
+    <col min="3" max="4" width="10.3984375" customWidth="1"/>
+    <col min="5" max="5" width="10.3984375"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>649</v>
+      </c>
+      <c r="D1" t="s">
         <v>650</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>651</v>
       </c>
-      <c r="E1" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D2" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="E2" s="1">
         <v>44668</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
+        <v>653</v>
+      </c>
+      <c r="D3" t="s">
         <v>654</v>
-      </c>
-      <c r="D3" t="s">
-        <v>655</v>
       </c>
       <c r="E3" s="1">
         <v>44663</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="D4" t="s">
         <v>148</v>
@@ -14261,32 +13530,32 @@
         <v>44604</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="D5" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E5" s="1">
         <v>44592</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D6" t="s">
         <v>236</v>
@@ -14295,49 +13564,49 @@
         <v>44643</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
       </c>
       <c r="C7" t="s">
+        <v>656</v>
+      </c>
+      <c r="D7" t="s">
         <v>657</v>
-      </c>
-      <c r="D7" t="s">
-        <v>658</v>
       </c>
       <c r="E7" s="1">
         <v>44677</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B8" t="s">
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E8" s="1">
         <v>44632</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D9" t="s">
         <v>339</v>
@@ -14346,77 +13615,77 @@
         <v>44628</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B10" t="s">
         <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D10" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E10" s="1">
         <v>44629</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B11" t="s">
         <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="D11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E11" s="1">
         <v>44639</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B12" t="s">
         <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="D12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E12" s="1">
         <v>44654</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B13" t="s">
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="D13" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E13" s="1">
         <v>44647</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B14" t="s">
         <v>37</v>
@@ -14431,49 +13700,49 @@
         <v>44662</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B15" t="s">
         <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="D15" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E15" s="1">
         <v>44675</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B16" t="s">
         <v>40</v>
       </c>
       <c r="C16" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="D16" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E16" s="1">
         <v>44950</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="D17" t="s">
         <v>19</v>
@@ -14482,66 +13751,66 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B18" t="s">
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E18" s="1">
         <v>44978</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B19" t="s">
         <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="D19" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E19" s="1">
         <v>44979</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B20" t="s">
         <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="D20" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="E20" s="1">
         <v>44994</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B21" t="s">
         <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D21" t="s">
         <v>136</v>
@@ -14550,185 +13819,185 @@
         <v>45013</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B22" t="s">
         <v>44</v>
       </c>
       <c r="C22" t="s">
+        <v>670</v>
+      </c>
+      <c r="D22" t="s">
         <v>671</v>
-      </c>
-      <c r="D22" t="s">
-        <v>672</v>
       </c>
       <c r="E22" s="1">
         <v>45018</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23" t="s">
+        <v>672</v>
+      </c>
+      <c r="D23" t="s">
         <v>673</v>
-      </c>
-      <c r="D23" t="s">
-        <v>674</v>
       </c>
       <c r="E23" s="1">
         <v>45045</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B24" t="s">
         <v>48</v>
       </c>
       <c r="C24" t="s">
+        <v>674</v>
+      </c>
+      <c r="D24" t="s">
         <v>675</v>
-      </c>
-      <c r="D24" t="s">
-        <v>676</v>
       </c>
       <c r="E24" s="1">
         <v>45031</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B25" t="s">
         <v>57</v>
       </c>
       <c r="C25" t="s">
+        <v>676</v>
+      </c>
+      <c r="D25" t="s">
         <v>677</v>
-      </c>
-      <c r="D25" t="s">
-        <v>678</v>
       </c>
       <c r="E25" s="1">
         <v>44970</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
       </c>
       <c r="C26" t="s">
+        <v>678</v>
+      </c>
+      <c r="D26" t="s">
         <v>679</v>
-      </c>
-      <c r="D26" t="s">
-        <v>680</v>
       </c>
       <c r="E26" s="1">
         <v>45042</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B27" t="s">
         <v>57</v>
       </c>
       <c r="C27" t="s">
+        <v>680</v>
+      </c>
+      <c r="D27" t="s">
         <v>681</v>
-      </c>
-      <c r="D27" t="s">
-        <v>682</v>
       </c>
       <c r="E27" s="1">
         <v>44975</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B28" t="s">
         <v>57</v>
       </c>
       <c r="C28" t="s">
+        <v>682</v>
+      </c>
+      <c r="D28" t="s">
         <v>683</v>
-      </c>
-      <c r="D28" t="s">
-        <v>684</v>
       </c>
       <c r="E28" s="1">
         <v>45001</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B29" t="s">
         <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D29" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E29" s="1">
         <v>44962</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
       </c>
       <c r="C30" t="s">
+        <v>685</v>
+      </c>
+      <c r="D30" t="s">
         <v>686</v>
-      </c>
-      <c r="D30" t="s">
-        <v>687</v>
       </c>
       <c r="E30" s="1">
         <v>45032</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B31" t="s">
         <v>61</v>
       </c>
       <c r="C31" t="s">
+        <v>687</v>
+      </c>
+      <c r="D31" t="s">
         <v>688</v>
-      </c>
-      <c r="D31" t="s">
-        <v>689</v>
       </c>
       <c r="E31" s="1">
         <v>44968</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B32" t="s">
         <v>61</v>
       </c>
       <c r="C32" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="D32" t="s">
         <v>191</v>
@@ -14737,49 +14006,49 @@
         <v>45042</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B33" t="s">
         <v>64</v>
       </c>
       <c r="C33" t="s">
+        <v>690</v>
+      </c>
+      <c r="D33" t="s">
         <v>691</v>
-      </c>
-      <c r="D33" t="s">
-        <v>692</v>
       </c>
       <c r="E33" s="1">
         <v>45041</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B34" t="s">
         <v>64</v>
       </c>
       <c r="C34" t="s">
+        <v>692</v>
+      </c>
+      <c r="D34" t="s">
         <v>693</v>
-      </c>
-      <c r="D34" t="s">
-        <v>694</v>
       </c>
       <c r="E34" s="1">
         <v>44966</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="D35" t="s">
         <v>75</v>
@@ -14788,83 +14057,83 @@
         <v>45394</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
       </c>
       <c r="C36" t="s">
+        <v>695</v>
+      </c>
+      <c r="D36" t="s">
         <v>696</v>
-      </c>
-      <c r="D36" t="s">
-        <v>697</v>
       </c>
       <c r="E36" s="1">
         <v>45406</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
       </c>
       <c r="C37" t="s">
+        <v>697</v>
+      </c>
+      <c r="D37" t="s">
         <v>698</v>
-      </c>
-      <c r="D37" t="s">
-        <v>699</v>
       </c>
       <c r="E37" s="1">
         <v>45405</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B38" t="s">
         <v>70</v>
       </c>
       <c r="C38" t="s">
+        <v>699</v>
+      </c>
+      <c r="D38" t="s">
         <v>700</v>
-      </c>
-      <c r="D38" t="s">
-        <v>701</v>
       </c>
       <c r="E38" s="1">
         <v>45409</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B39" t="s">
         <v>70</v>
       </c>
       <c r="C39" t="s">
+        <v>701</v>
+      </c>
+      <c r="D39" t="s">
         <v>702</v>
-      </c>
-      <c r="D39" t="s">
-        <v>703</v>
       </c>
       <c r="E39" s="1">
         <v>45358</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B40" t="s">
         <v>70</v>
       </c>
       <c r="C40" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D40" t="s">
         <v>433</v>
@@ -14873,83 +14142,83 @@
         <v>45352</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B41" t="s">
         <v>74</v>
       </c>
       <c r="C41" t="s">
+        <v>704</v>
+      </c>
+      <c r="D41" t="s">
         <v>705</v>
-      </c>
-      <c r="D41" t="s">
-        <v>706</v>
       </c>
       <c r="E41" s="1">
         <v>45408</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B42" t="s">
         <v>74</v>
       </c>
       <c r="C42" t="s">
+        <v>706</v>
+      </c>
+      <c r="D42" t="s">
         <v>707</v>
-      </c>
-      <c r="D42" t="s">
-        <v>708</v>
       </c>
       <c r="E42" s="1">
         <v>45402</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B43" t="s">
         <v>74</v>
       </c>
       <c r="C43" t="s">
+        <v>708</v>
+      </c>
+      <c r="D43" t="s">
         <v>709</v>
-      </c>
-      <c r="D43" t="s">
-        <v>710</v>
       </c>
       <c r="E43" s="1">
         <v>45383</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B44" t="s">
         <v>78</v>
       </c>
       <c r="C44" t="s">
+        <v>710</v>
+      </c>
+      <c r="D44" t="s">
         <v>711</v>
-      </c>
-      <c r="D44" t="s">
-        <v>712</v>
       </c>
       <c r="E44" s="1">
         <v>45336</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B45" t="s">
         <v>78</v>
       </c>
       <c r="C45" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="D45" t="s">
         <v>145</v>
@@ -14958,42 +14227,42 @@
         <v>45379</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B46" t="s">
         <v>82</v>
       </c>
       <c r="C46" t="s">
+        <v>713</v>
+      </c>
+      <c r="D46" t="s">
         <v>714</v>
-      </c>
-      <c r="D46" t="s">
-        <v>715</v>
       </c>
       <c r="E46" s="1">
         <v>45374</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B47" t="s">
         <v>85</v>
       </c>
       <c r="C47" t="s">
+        <v>715</v>
+      </c>
+      <c r="D47" t="s">
         <v>716</v>
-      </c>
-      <c r="D47" t="s">
-        <v>717</v>
       </c>
       <c r="E47" s="1">
         <v>45385</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>